--- a/data/MisInfoText/Analysis_output/news_blog_and_social_media/MisInfoText_quotes.xlsx
+++ b/data/MisInfoText/Analysis_output/news_blog_and_social_media/MisInfoText_quotes.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="1879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="1878">
   <si>
     <t>quote</t>
   </si>
@@ -2629,17 +2629,15 @@
  </t>
   </si>
   <si>
-    <t>"However, more than 40% of physician respondents were unaware of the cerebral sinus thrombosis, and the vast majority of voters were not aware of all of Clinton’s problems or their potential serious long-term implications for cognitive function."</t>
-  </si>
-  <si>
-    <t>that hiring a non-white Santa Claus was the last straw in corporate Americas twisting of traditional, conservative Christian values, because they realized they couldnt make any more money off of the usual scams and techniques theyve been using so far</t>
-  </si>
-  <si>
     <t xml:space="preserve">, Mrs. Robinson earned the lifetime pension for "services rendered as full-time/in-home caregiver" for granddaughters Malia, 18, and Sasha, 15, during President Obama’s two terms in office.
  .
- .
- .
  </t>
+  </si>
+  <si>
+    <t>"However, more than 40% of physician respondents were unaware of the cerebral sinus thrombosis, and the vast majority of voters were not aware of all of Clinton’s problems or their potential serious long-term implications for cognitive function."</t>
+  </si>
+  <si>
+    <t>that hiring a non-white Santa Claus was the last straw in corporate Americas twisting of traditional, conservative Christian values, because they realized they couldnt make any more money off of the usual scams and techniques theyve been using so far</t>
   </si>
   <si>
     <t>"Probably the sheer amount of men he welcomed into his bed quarters. I am in no way homophobic, but Obama’s insatiable lust for homosexual liaisons is like nothing I’ve ever witnessed. We’re talking 10-15 partners in a single day."</t>
@@ -2702,392 +2700,394 @@
     <t>"Rather than (irrationally) calling for a fast-tracked Zika virus vaccine program against a benign mosquito virus that is the least likely causative agent for congenital defects like microcephaly, these authorities have chosen to keep quiet about the really logical thing to do until more is known: warn the pregnant targets of the new vaccination policy and immediately stop inoculating pregnant women with neurotoxic, aluminum-adjuvanted vaccines! Doing otherwise might meet the definition of reckless child endangerment or even crimes against humanity."</t>
   </si>
   <si>
+    <t>I hate this country</t>
+  </si>
+  <si>
     <t>Such crime is prevalent</t>
   </si>
   <si>
+    <t>that Putin pays him</t>
+  </si>
+  <si>
     <t>crime rates are higher</t>
   </si>
   <si>
+    <t>he inherited their mess</t>
+  </si>
+  <si>
+    <t>it was a forgery</t>
+  </si>
+  <si>
     <t>She touched me first</t>
   </si>
   <si>
-    <t>he inherited their mess</t>
-  </si>
-  <si>
-    <t>I hate this country</t>
-  </si>
-  <si>
-    <t>it was a forgery</t>
-  </si>
-  <si>
-    <t>that Putin pays him</t>
+    <t>Wyden was one page long</t>
+  </si>
+  <si>
+    <t>Kelley carried an Antifa flag</t>
+  </si>
+  <si>
+    <t>that she added to Moores</t>
+  </si>
+  <si>
+    <t>this is a plausible theory</t>
+  </si>
+  <si>
+    <t>, NewsTarget reported last week</t>
   </si>
   <si>
     <t>how bad the situation was</t>
   </si>
   <si>
+    <t>democracy is now in crisis</t>
+  </si>
+  <si>
+    <t>she sticks to her story</t>
+  </si>
+  <si>
+    <t>The situation has become critical</t>
+  </si>
+  <si>
     <t>Its all so clear now</t>
   </si>
   <si>
-    <t>The situation has become critical</t>
-  </si>
-  <si>
-    <t>she sticks to her story</t>
-  </si>
-  <si>
-    <t>Wyden was one page long</t>
-  </si>
-  <si>
-    <t>, NewsTarget reported last week</t>
-  </si>
-  <si>
-    <t>that she added to Moores</t>
-  </si>
-  <si>
-    <t>this is a plausible theory</t>
-  </si>
-  <si>
-    <t>Kelley carried an Antifa flag</t>
-  </si>
-  <si>
-    <t>democracy is now in crisis</t>
+    <t>to send Hillary to prison,</t>
+  </si>
+  <si>
+    <t>the app is for rich people</t>
+  </si>
+  <si>
+    <t>And what worried me even more</t>
+  </si>
+  <si>
+    <t>Im with the majority today</t>
+  </si>
+  <si>
+    <t>that he had already done so</t>
+  </si>
+  <si>
+    <t>One question has a clear answer</t>
+  </si>
+  <si>
+    <t>that he understands the Soros agenda</t>
+  </si>
+  <si>
+    <t>that Russia interfered in the election</t>
+  </si>
+  <si>
+    <t>this race will be the toughest</t>
+  </si>
+  <si>
+    <t>he wasn’t a true American</t>
+  </si>
+  <si>
+    <t>this man has white people hair</t>
   </si>
   <si>
     <t>It won’t matter soon anyway</t>
   </si>
   <si>
-    <t>this man has white people hair</t>
+    <t>"I thought it was crazy</t>
+  </si>
+  <si>
+    <t>is Moores signature inside her yearbook</t>
   </si>
   <si>
     <t>they’re supporting women’s health</t>
   </si>
   <si>
-    <t>that he had already done so</t>
-  </si>
-  <si>
-    <t>the app is for rich people</t>
-  </si>
-  <si>
-    <t>that he understands the Soros agenda</t>
-  </si>
-  <si>
-    <t>Im with the majority today</t>
-  </si>
-  <si>
-    <t>"I thought it was crazy</t>
-  </si>
-  <si>
     <t>, called a mantle plume,</t>
   </si>
   <si>
-    <t>One question has a clear answer</t>
-  </si>
-  <si>
-    <t>to send Hillary to prison,</t>
-  </si>
-  <si>
-    <t>is Moores signature inside her yearbook</t>
-  </si>
-  <si>
     <t>they are getting phone calls and</t>
   </si>
   <si>
-    <t>And what worried me even more</t>
-  </si>
-  <si>
-    <t>he wasn’t a true American</t>
-  </si>
-  <si>
     <t>that pneumonia must be taken seriously</t>
   </si>
   <si>
-    <t>this race will be the toughest</t>
-  </si>
-  <si>
-    <t>that Russia interfered in the election</t>
+    <t>indicated that it had recently laid eggs</t>
+  </si>
+  <si>
+    <t>Barron is currently receiving treatment in hospital</t>
+  </si>
+  <si>
+    <t>she’s not "politically vocal"</t>
   </si>
   <si>
     <t>"Economic Club of Toronto,"</t>
   </si>
   <si>
-    <t>indicated that it had recently laid eggs</t>
+    <t>she learned how to push the limits</t>
+  </si>
+  <si>
+    <t>there are grounds to impeach President Trump</t>
+  </si>
+  <si>
+    <t>"War of Northern Aggression."</t>
+  </si>
+  <si>
+    <t>I will NEVER GIVE UP the fight</t>
+  </si>
+  <si>
+    <t>what nearly all Republicans are guilty of</t>
+  </si>
+  <si>
+    <t>"legislation negotiated in secret."</t>
+  </si>
+  <si>
+    <t>accuse GOP candidate Moore of the crime</t>
+  </si>
+  <si>
+    <t>that Russia did not influence electoral process</t>
+  </si>
+  <si>
+    <t>while "doing a brilliant job"</t>
   </si>
   <si>
     <t>that Roy Moore is in the lead</t>
   </si>
   <si>
+    <t>"Get out of Jail Free"</t>
+  </si>
+  <si>
+    <t>I could not say, Merry Christmas</t>
+  </si>
+  <si>
+    <t>He orders the same thing every time</t>
+  </si>
+  <si>
+    <t>"Diversity Visa Lottery Program,"</t>
+  </si>
+  <si>
+    <t>"That is a fact."</t>
+  </si>
+  <si>
     <t>what’s been circling the web recently</t>
   </si>
   <si>
-    <t>"That is a fact."</t>
-  </si>
-  <si>
-    <t>she learned how to push the limits</t>
-  </si>
-  <si>
-    <t>"War of Northern Aggression."</t>
-  </si>
-  <si>
-    <t>there are grounds to impeach President Trump</t>
-  </si>
-  <si>
-    <t>He orders the same thing every time</t>
-  </si>
-  <si>
-    <t>"legislation negotiated in secret."</t>
-  </si>
-  <si>
-    <t>"Diversity Visa Lottery Program,"</t>
-  </si>
-  <si>
-    <t>what nearly all Republicans are guilty of</t>
-  </si>
-  <si>
-    <t>"Get out of Jail Free"</t>
-  </si>
-  <si>
-    <t>I will NEVER GIVE UP the fight</t>
-  </si>
-  <si>
-    <t>while "doing a brilliant job"</t>
-  </si>
-  <si>
-    <t>that Russia did not influence electoral process</t>
-  </si>
-  <si>
     <t>is Moore’s signature inside her yearbook</t>
   </si>
   <si>
-    <t>I could not say, Merry Christmas</t>
-  </si>
-  <si>
-    <t>accuse GOP candidate Moore of the crime</t>
-  </si>
-  <si>
     <t>tax reform will be revenue-neutral</t>
   </si>
   <si>
-    <t>Barron is currently receiving treatment in hospital</t>
-  </si>
-  <si>
-    <t>she’s not "politically vocal"</t>
+    <t>We wish Mr. Brown the best, but</t>
+  </si>
+  <si>
+    <t>THAT ALSO TOUCHED ON THE LOSS OF HER</t>
   </si>
   <si>
     <t>they are willing to pay the black tax</t>
   </si>
   <si>
+    <t>how much gas and diesel thefts could rise</t>
+  </si>
+  <si>
+    <t>"she had been raped before."</t>
+  </si>
+  <si>
+    <t>that the protesters acted violently toward Trump supporters</t>
+  </si>
+  <si>
+    <t>"There’s nothing wrong with maximizing profit</t>
+  </si>
+  <si>
     <t>that she essentially took over the DNC,</t>
   </si>
   <si>
+    <t>This is a country where we speak English</t>
+  </si>
+  <si>
+    <t>" Pelosi said in a statement. "</t>
+  </si>
+  <si>
+    <t>thats being taken care of as well</t>
+  </si>
+  <si>
+    <t>That was considered a pre-existing condition</t>
+  </si>
+  <si>
+    <t>there is "no reason to be alarmed</t>
+  </si>
+  <si>
+    <t>that the allegations of sexual misconduct are false</t>
+  </si>
+  <si>
+    <t>that this strange occurrence was expected to happen</t>
+  </si>
+  <si>
+    <t>Barricades were used to keep the sides separated</t>
+  </si>
+  <si>
+    <t>that the threat would come from the side</t>
+  </si>
+  <si>
     <t>chants by monument supporters included Wheres Mitch</t>
   </si>
   <si>
+    <t>hes not worried about Dana at all</t>
+  </si>
+  <si>
+    <t>It’s as funny as it is pitiful</t>
+  </si>
+  <si>
     <t>that he is prepared to subpoena the information</t>
   </si>
   <si>
-    <t>" Pelosi said in a statement. "</t>
-  </si>
-  <si>
-    <t>that the protesters acted violently toward Trump supporters</t>
-  </si>
-  <si>
     <t>the quote was taken out of context,</t>
   </si>
   <si>
-    <t>It’s as funny as it is pitiful</t>
-  </si>
-  <si>
-    <t>that this strange occurrence was expected to happen</t>
-  </si>
-  <si>
-    <t>"There’s nothing wrong with maximizing profit</t>
-  </si>
-  <si>
-    <t>Barricades were used to keep the sides separated</t>
+    <t>The Solyndra mansion was just one of many</t>
   </si>
   <si>
     <t>One was treated for "minor injuries"</t>
   </si>
   <si>
-    <t>This is a country where we speak English</t>
-  </si>
-  <si>
-    <t>We wish Mr. Brown the best, but</t>
-  </si>
-  <si>
-    <t>That was considered a pre-existing condition</t>
-  </si>
-  <si>
     <t>, the dwelling had been recently occupied.</t>
   </si>
   <si>
-    <t>The Solyndra mansion was just one of many</t>
-  </si>
-  <si>
-    <t>THAT ALSO TOUCHED ON THE LOSS OF HER</t>
-  </si>
-  <si>
-    <t>that the threat would come from the side</t>
-  </si>
-  <si>
-    <t>"she had been raped before."</t>
-  </si>
-  <si>
-    <t>how much gas and diesel thefts could rise</t>
-  </si>
-  <si>
-    <t>that the allegations of sexual misconduct are false</t>
-  </si>
-  <si>
-    <t>hes not worried about Dana at all</t>
-  </si>
-  <si>
-    <t>thats being taken care of as well</t>
-  </si>
-  <si>
-    <t>there is "no reason to be alarmed</t>
-  </si>
-  <si>
     <t>We didnt realize he was this unhinged</t>
   </si>
   <si>
+    <t>Clinton left the DNC penniless and heavily in debt</t>
+  </si>
+  <si>
+    <t>she will resign if Trump was elected President,</t>
+  </si>
+  <si>
+    <t>We are unsure if accomplices are still at large</t>
+  </si>
+  <si>
+    <t>authorities were still "actively investigating" the shooting</t>
+  </si>
+  <si>
+    <t>And you’re going to have to pretty soon</t>
+  </si>
+  <si>
+    <t>which is why I think this is so serious</t>
+  </si>
+  <si>
+    <t>that he’s from another part of the world</t>
+  </si>
+  <si>
+    <t>that his legacy "should not be diminished,</t>
+  </si>
+  <si>
+    <t>" (Exodus 20:7). The word "</t>
+  </si>
+  <si>
+    <t>"We will NOT Cease and Desist!"</t>
+  </si>
+  <si>
+    <t>This is all on the head of Barack Obama</t>
+  </si>
+  <si>
+    <t>the CIA faked the death of Osama Bin Laden</t>
+  </si>
+  <si>
+    <t>The guy had it coming, end of story</t>
+  </si>
+  <si>
     <t>"They do everything to maximize profit."</t>
   </si>
   <si>
+    <t>that President Obama has "sanctioned" violence,</t>
+  </si>
+  <si>
+    <t>that Europe should become one country under one government</t>
+  </si>
+  <si>
+    <t>"But when you book and overbook,"</t>
+  </si>
+  <si>
+    <t>"Target will no longer cater to religious extremists</t>
+  </si>
+  <si>
     <t>that it should begin no later than this fall</t>
   </si>
   <si>
+    <t>alleged signature is the final nail in the coffin</t>
+  </si>
+  <si>
     <t>Clearly, there is no comparison in the numbers</t>
   </si>
   <si>
-    <t>the CIA faked the death of Osama Bin Laden</t>
-  </si>
-  <si>
-    <t>that he’s from another part of the world</t>
-  </si>
-  <si>
-    <t>"We will NOT Cease and Desist!"</t>
+    <t>"St. Louis an abortion sanctuary city."</t>
+  </si>
+  <si>
+    <t>her own views are colored by her son Louis</t>
   </si>
   <si>
     <t>she did make notes to [Moores] inscription</t>
   </si>
   <si>
-    <t>authorities were still "actively investigating" the shooting</t>
+    <t>How is this guy still holding office in California</t>
+  </si>
+  <si>
+    <t>"Ms. Kelly wants to be a journalist.</t>
+  </si>
+  <si>
+    <t>she’d "do anything" for her son</t>
   </si>
   <si>
     <t>it even lied to lawmakers to cover its tracks</t>
   </si>
   <si>
-    <t>Clinton left the DNC penniless and heavily in debt</t>
-  </si>
-  <si>
-    <t>The guy had it coming, end of story</t>
-  </si>
-  <si>
-    <t>" (Exodus 20:7). The word "</t>
-  </si>
-  <si>
-    <t>"But when you book and overbook,"</t>
-  </si>
-  <si>
-    <t>We are unsure if accomplices are still at large</t>
-  </si>
-  <si>
-    <t>"Target will no longer cater to religious extremists</t>
-  </si>
-  <si>
-    <t>How is this guy still holding office in California</t>
-  </si>
-  <si>
-    <t>that Europe should become one country under one government</t>
-  </si>
-  <si>
-    <t>her own views are colored by her son Louis</t>
-  </si>
-  <si>
-    <t>she’d "do anything" for her son</t>
-  </si>
-  <si>
-    <t>"St. Louis an abortion sanctuary city."</t>
-  </si>
-  <si>
-    <t>that his legacy "should not be diminished,</t>
-  </si>
-  <si>
     <t>I’m going to move there after I retire</t>
   </si>
   <si>
-    <t>which is why I think this is so serious</t>
-  </si>
-  <si>
-    <t>that President Obama has "sanctioned" violence,</t>
-  </si>
-  <si>
-    <t>"Ms. Kelly wants to be a journalist.</t>
-  </si>
-  <si>
     <t>"We're trying to make progress."</t>
   </si>
   <si>
-    <t>she will resign if Trump was elected President,</t>
-  </si>
-  <si>
-    <t>This is all on the head of Barack Obama</t>
-  </si>
-  <si>
-    <t>alleged signature is the final nail in the coffin</t>
-  </si>
-  <si>
-    <t>And you’re going to have to pretty soon</t>
+    <t>She will instead get a job at the Treasury Department</t>
+  </si>
+  <si>
+    <t>would’ve found a way to prevent the Civil War</t>
+  </si>
+  <si>
+    <t>I am ashamed to even be an American [deserter</t>
+  </si>
+  <si>
+    <t>that Starbucks strives to "embrace diversity of all kinds</t>
+  </si>
+  <si>
+    <t>Our Brand Is Crisis, in Los Angeles on Friday</t>
+  </si>
+  <si>
+    <t>President Trump has not yet fulfilled this particular campaign promise</t>
+  </si>
+  <si>
+    <t>We would have preferred it to be in the daytime</t>
   </si>
   <si>
     <t>Can’t blame her with FBI in stories every day</t>
   </si>
   <si>
+    <t>charter schools have just as much accountability as public schools</t>
+  </si>
+  <si>
+    <t>"Those kinds of comments are very serious to me</t>
+  </si>
+  <si>
+    <t>I couldn’t disagree more with a statement like that</t>
+  </si>
+  <si>
+    <t>"I just want what’s best for our country</t>
+  </si>
+  <si>
+    <t>it's time we had real leadership in America https://t.co/epFwm9GxT9</t>
+  </si>
+  <si>
+    <t>He had a consent order that had to be followed</t>
+  </si>
+  <si>
     <t>I’ve seen it in all kinds of TV documentaries</t>
   </si>
   <si>
-    <t>President Trump has not yet fulfilled this particular campaign promise</t>
-  </si>
-  <si>
-    <t>I couldn’t disagree more with a statement like that</t>
-  </si>
-  <si>
-    <t>would’ve found a way to prevent the Civil War</t>
-  </si>
-  <si>
-    <t>We would have preferred it to be in the daytime</t>
-  </si>
-  <si>
-    <t>it's time we had real leadership in America https://t.co/epFwm9GxT9</t>
-  </si>
-  <si>
-    <t>"Those kinds of comments are very serious to me</t>
-  </si>
-  <si>
-    <t>charter schools have just as much accountability as public schools</t>
-  </si>
-  <si>
-    <t>He had a consent order that had to be followed</t>
-  </si>
-  <si>
-    <t>"I just want what’s best for our country</t>
-  </si>
-  <si>
-    <t>"We are continuing to build out the website…</t>
-  </si>
-  <si>
-    <t>".
- .
- .
- .
- "</t>
+    <t>that the First Amendment allows for protection of religious freedoms</t>
   </si>
   <si>
     <t>the FBI seized smashed hard drives belonging to Imran Awan</t>
-  </si>
-  <si>
-    <t>Our Brand Is Crisis, in Los Angeles on Friday</t>
   </si>
   <si>
     <t>".
@@ -3095,316 +3095,331 @@
  The pastor reprimanded: "</t>
   </si>
   <si>
+    <t>"We are continuing to build out the website…</t>
+  </si>
+  <si>
     <t>that Trump has the power to fire Mueller if necessary</t>
   </si>
   <si>
-    <t>I am ashamed to even be an American [deserter</t>
-  </si>
-  <si>
-    <t>that Starbucks strives to "embrace diversity of all kinds</t>
+    <t>Barron Trump goes to this school in Washington,'</t>
+  </si>
+  <si>
+    <t>"if all of the problems are solved."</t>
+  </si>
+  <si>
+    <t>they are certain the men were serious about the plan</t>
   </si>
   <si>
     <t>that Trump’s tax return is  "irrelevant,</t>
   </si>
   <si>
-    <t>Barron Trump goes to this school in Washington,'</t>
-  </si>
-  <si>
-    <t>they are certain the men were serious about the plan</t>
-  </si>
-  <si>
-    <t>"if all of the problems are solved."</t>
-  </si>
-  <si>
-    <t>that the First Amendment allows for protection of religious freedoms</t>
-  </si>
-  <si>
-    <t>She will instead get a job at the Treasury Department</t>
+    <t>our story was not accurate and Facebook the shut it down</t>
+  </si>
+  <si>
+    <t>But something like this really does make you stop and think</t>
+  </si>
+  <si>
+    <t>"I wouldn’t want to lose my mammograms."</t>
+  </si>
+  <si>
+    <t>that the movie and television industry wouldn’t survive without them</t>
   </si>
   <si>
     <t>To me, Donald Trump is a modern civil rights icon</t>
   </si>
   <si>
-    <t>our story was not accurate and Facebook the shut it down</t>
+    <t>You have to remember that this is a very big animal</t>
+  </si>
+  <si>
+    <t>the suspect might have fled the scene in a dark vehicle</t>
+  </si>
+  <si>
+    <t>that he did little but express concern for a longtime associate</t>
+  </si>
+  <si>
+    <t>that someone broke in the school threw the east wing door</t>
   </si>
   <si>
     <t>that the house had been extremely dark, cluttered, and</t>
   </si>
   <si>
+    <t>Albert Whitted sewage plant was behind much of Kriseman's troubles</t>
+  </si>
+  <si>
+    <t>dinosaurs actually existed and the earth is somehow getting warmer.</t>
+  </si>
+  <si>
+    <t>this bill has fixed a once-broken health care system</t>
+  </si>
+  <si>
+    <t>"pushing a political ideology instead of running a church"</t>
+  </si>
+  <si>
+    <t>that filming will begin in Jacksonville, North Carolina this summer</t>
+  </si>
+  <si>
+    <t>their child’s autism is linked to a vaccine they received</t>
+  </si>
+  <si>
     <t>the retail giant will be discontinuing sales of the Holy Bible</t>
   </si>
   <si>
-    <t>dinosaurs actually existed and the earth is somehow getting warmer.</t>
-  </si>
-  <si>
-    <t>their child’s autism is linked to a vaccine they received</t>
-  </si>
-  <si>
-    <t>this bill has fixed a once-broken health care system</t>
-  </si>
-  <si>
-    <t>that the movie and television industry wouldn’t survive without them</t>
-  </si>
-  <si>
-    <t>Albert Whitted sewage plant was behind much of Kriseman's troubles</t>
-  </si>
-  <si>
-    <t>You have to remember that this is a very big animal</t>
-  </si>
-  <si>
     <t>Keirstead raised $138,504 shortly after jumping into the race,</t>
   </si>
   <si>
-    <t>But something like this really does make you stop and think</t>
-  </si>
-  <si>
-    <t>that someone broke in the school threw the east wing door</t>
-  </si>
-  <si>
     <t>that Soros funded its anti-Muslim extremists report targeting Nawaz</t>
   </si>
   <si>
-    <t>that he did little but express concern for a longtime associate</t>
-  </si>
-  <si>
-    <t>that filming will begin in Jacksonville, North Carolina this summer</t>
-  </si>
-  <si>
-    <t>"I wouldn’t want to lose my mammograms."</t>
-  </si>
-  <si>
-    <t>"pushing a political ideology instead of running a church"</t>
-  </si>
-  <si>
-    <t>the suspect might have fled the scene in a dark vehicle</t>
+    <t>This event would be similar to what Alaskans experience in the winter</t>
+  </si>
+  <si>
+    <t>that this bill is specifically intended to reduce fear about Islamic terrorism</t>
+  </si>
+  <si>
+    <t>that the reason the water was able to penetrate was simple physics</t>
+  </si>
+  <si>
+    <t>that the team will be seeking a new forward to replace Brown</t>
+  </si>
+  <si>
+    <t>People don’t realize, you know, the Civil War,</t>
+  </si>
+  <si>
+    <t>it sickens her to think what might happen if Moore is elected</t>
+  </si>
+  <si>
+    <t>It was a setup for these dumb Civil War re-enactors</t>
+  </si>
+  <si>
+    <t>During a Monday press conference that media outlets were banned from airing</t>
+  </si>
+  <si>
+    <t>the Charlottesville riots were staged by liberals and were a total hoax</t>
+  </si>
+  <si>
+    <t>"It was absolutely a success, what we did."</t>
+  </si>
+  <si>
+    <t>that pledge, is there any chance of assimilating into the culture</t>
+  </si>
+  <si>
+    <t>I’m going to be penalized my whole life because of this</t>
+  </si>
+  <si>
+    <t>the US will be a global leader in energy exports by 2022</t>
+  </si>
+  <si>
+    <t>that the mainstream media would be reporting this story non-stop</t>
+  </si>
+  <si>
+    <t>" that they can funnel to themselves as administrative costs and "</t>
+  </si>
+  <si>
+    <t>the citizens who pay his salary should get to meet with him</t>
   </si>
   <si>
     <t>that the squid is a female and further examination of the corpse</t>
   </si>
   <si>
+    <t>it’s time to think about the way he looks after himself</t>
+  </si>
+  <si>
+    <t>that they had seen severely injured people being airlifted from the area</t>
+  </si>
+  <si>
+    <t>"substantial and irreversible impairment of a major bodily function."</t>
+  </si>
+  <si>
+    <t>Pope Francis is the false prophet foretold in holy scripture and prophecy</t>
+  </si>
+  <si>
+    <t>that our audience will tolerate and even learn to like her,</t>
+  </si>
+  <si>
     <t>that black Americans owned black slaves from at least the mid-17th century</t>
   </si>
   <si>
-    <t>that this bill is specifically intended to reduce fear about Islamic terrorism</t>
-  </si>
-  <si>
-    <t>During a Monday press conference that media outlets were banned from airing</t>
-  </si>
-  <si>
     <t>that having a personal relationship with Jesus is "dangerous and harmful</t>
   </si>
   <si>
-    <t>"It was absolutely a success, what we did."</t>
-  </si>
-  <si>
-    <t>that the mainstream media would be reporting this story non-stop</t>
-  </si>
-  <si>
-    <t>that pledge, is there any chance of assimilating into the culture</t>
-  </si>
-  <si>
-    <t>it sickens her to think what might happen if Moore is elected</t>
-  </si>
-  <si>
-    <t>It was a setup for these dumb Civil War re-enactors</t>
-  </si>
-  <si>
-    <t>the Charlottesville riots were staged by liberals and were a total hoax</t>
-  </si>
-  <si>
-    <t>I’m going to be penalized my whole life because of this</t>
-  </si>
-  <si>
-    <t>that the team will be seeking a new forward to replace Brown</t>
-  </si>
-  <si>
-    <t>that the reason the water was able to penetrate was simple physics</t>
-  </si>
-  <si>
-    <t>the US will be a global leader in energy exports by 2022</t>
-  </si>
-  <si>
-    <t>the citizens who pay his salary should get to meet with him</t>
-  </si>
-  <si>
-    <t>that our audience will tolerate and even learn to like her,</t>
-  </si>
-  <si>
-    <t>This event would be similar to what Alaskans experience in the winter</t>
-  </si>
-  <si>
-    <t>" that they can funnel to themselves as administrative costs and "</t>
-  </si>
-  <si>
-    <t>that they had seen severely injured people being airlifted from the area</t>
-  </si>
-  <si>
     <t>"My mother would have been proud of the President’s words</t>
   </si>
   <si>
+    <t>We simply don’t have the staff or resources to distribute countrywide</t>
+  </si>
+  <si>
     <t>that the company was right to, first, overbook the flight</t>
   </si>
   <si>
-    <t>Pope Francis is the false prophet foretold in holy scripture and prophecy</t>
-  </si>
-  <si>
-    <t>People don’t realize, you know, the Civil War,</t>
-  </si>
-  <si>
-    <t>We simply don’t have the staff or resources to distribute countrywide</t>
-  </si>
-  <si>
-    <t>"substantial and irreversible impairment of a major bodily function."</t>
-  </si>
-  <si>
-    <t>it’s time to think about the way he looks after himself</t>
+    <t>she was never proud of her country til they elected her husband POTUS</t>
+  </si>
+  <si>
+    <t>"anyone can come to San Juan if they need supplies."</t>
+  </si>
+  <si>
+    <t>he was trying to help the citizens of America by releasing these documents</t>
+  </si>
+  <si>
+    <t>he will share crucial information about how Hillary attempted to frame Donald Trump</t>
+  </si>
+  <si>
+    <t>I swear, sometimes I dont believe how stupid Americans can be</t>
+  </si>
+  <si>
+    <t>Oh, and calling them white nationalist riots is a liberal media deceit</t>
+  </si>
+  <si>
+    <t>Supporting terrorists anywhere in the world can have serious and long term consequences</t>
+  </si>
+  <si>
+    <t>she heard him scream for about 15 seconds after the crematory was activated</t>
   </si>
   <si>
     <t>that this definition of pre-existing condition existed before Obamacare passed,</t>
   </si>
   <si>
+    <t>that the president is sending "a signal to Donald Trump supporters:</t>
+  </si>
+  <si>
+    <t>You made it a rule, I didnt make it a rule</t>
+  </si>
+  <si>
+    <t>"looked down upon and disrespected by sneering liberals across the country"</t>
+  </si>
+  <si>
+    <t>that Moore had intimate relations with an underage female around 40 years ago</t>
+  </si>
+  <si>
+    <t>"rallies to protests to corporate PR stunts to celebrity scenes."</t>
+  </si>
+  <si>
+    <t>"Not the sort of bangles I usually choose on holiday."</t>
+  </si>
+  <si>
+    <t>We know its name because there were reporters who never stopped asking questions</t>
+  </si>
+  <si>
     <t>The criminal code demands more than what Comey reportedly describes in his memo</t>
   </si>
   <si>
-    <t>"looked down upon and disrespected by sneering liberals across the country"</t>
-  </si>
-  <si>
-    <t>We know its name because there were reporters who never stopped asking questions</t>
-  </si>
-  <si>
-    <t>she was never proud of her country til they elected her husband POTUS</t>
+    <t>that she tampered with and added "notes" to what she claims</t>
+  </si>
+  <si>
+    <t>, a bizarre crime scene was quickly uncovered upon entering the basement.</t>
+  </si>
+  <si>
+    <t>that Americans should boycott Nordstrom for removing Ivanka’s merchandise (they were</t>
+  </si>
+  <si>
+    <t>Those are the things I find most important in deciding where to live</t>
   </si>
   <si>
     <t>that there was a heavy police presence on the road to the church</t>
   </si>
   <si>
-    <t>, a bizarre crime scene was quickly uncovered upon entering the basement.</t>
-  </si>
-  <si>
-    <t>that Americans should boycott Nordstrom for removing Ivanka’s merchandise (they were</t>
-  </si>
-  <si>
-    <t>he was trying to help the citizens of America by releasing these documents</t>
-  </si>
-  <si>
-    <t>Supporting terrorists anywhere in the world can have serious and long term consequences</t>
-  </si>
-  <si>
-    <t>You made it a rule, I didnt make it a rule</t>
-  </si>
-  <si>
-    <t>"anyone can come to San Juan if they need supplies."</t>
-  </si>
-  <si>
-    <t>Those are the things I find most important in deciding where to live</t>
-  </si>
-  <si>
-    <t>that the president is sending "a signal to Donald Trump supporters:</t>
-  </si>
-  <si>
-    <t>I swear, sometimes I dont believe how stupid Americans can be</t>
-  </si>
-  <si>
-    <t>she heard him scream for about 15 seconds after the crematory was activated</t>
-  </si>
-  <si>
-    <t>that Moore had intimate relations with an underage female around 40 years ago</t>
-  </si>
-  <si>
-    <t>that she tampered with and added "notes" to what she claims</t>
-  </si>
-  <si>
-    <t>he will share crucial information about how Hillary attempted to frame Donald Trump</t>
-  </si>
-  <si>
-    <t>"Not the sort of bangles I usually choose on holiday."</t>
-  </si>
-  <si>
-    <t>"rallies to protests to corporate PR stunts to celebrity scenes."</t>
-  </si>
-  <si>
-    <t>Oh, and calling them white nationalist riots is a liberal media deceit</t>
+    <t>he was in on Seth Rich’s effort to get stolen docs to WikiLeaks</t>
+  </si>
+  <si>
+    <t>that the family friend had photographs of the reporter who reached out to her</t>
+  </si>
+  <si>
+    <t>that a WAPO reporter named Beth offered her 1000$ to accuse Roy Moore</t>
+  </si>
+  <si>
+    <t>she was making him look like a bad person to have at the wedding</t>
+  </si>
+  <si>
+    <t>this blackout will be caused by an astronomical event between Jupiter and Venus.</t>
+  </si>
+  <si>
+    <t>Sanctuary proponents claim crime rates are not higher where illegal alien populations are greater</t>
+  </si>
+  <si>
+    <t>"We’ve got the IT folks working overtime on that now."</t>
+  </si>
+  <si>
+    <t>we need our president to speak directly to us and tell us the truth</t>
+  </si>
+  <si>
+    <t>they are reaching out to an attorney, refusing to give any further statements</t>
+  </si>
+  <si>
+    <t>we feel that he does not embody the values of the Tampa Bay Lightning</t>
+  </si>
+  <si>
+    <t>as long it protects the "people favorable to the Obama position, politically</t>
   </si>
   <si>
     <t>Theyve marched, theyve bled and yes, some of them died</t>
   </si>
   <si>
-    <t>he was in on Seth Rich’s effort to get stolen docs to WikiLeaks</t>
+    <t>that Franciss unconventional teachings disqualified the Pope from calling himself a man of God</t>
+  </si>
+  <si>
+    <t>that their child has been effected negatively by a vaccine such as the MMR</t>
   </si>
   <si>
     <t>that these documents that prove this controversial claim are featured in his 2015 book</t>
   </si>
   <si>
-    <t>"We’ve got the IT folks working overtime on that now."</t>
-  </si>
-  <si>
-    <t>Sanctuary proponents claim crime rates are not higher where illegal alien populations are greater</t>
-  </si>
-  <si>
-    <t>as long it protects the "people favorable to the Obama position, politically</t>
+    <t>that the leader of the Catholic Church "is not a man of God</t>
+  </si>
+  <si>
+    <t>"scientists are nothing more than a bunch of mislead individuals anyway."</t>
+  </si>
+  <si>
+    <t>that the rights granted to the people in my district are not infringed upon</t>
+  </si>
+  <si>
+    <t>it has discharged nearly 186 million gallons of sewage over the last two summers</t>
+  </si>
+  <si>
+    <t>it would reduce premiums for families by an average of $2,500 per year</t>
+  </si>
+  <si>
+    <t>"That means they are here illegally. I had to act."</t>
+  </si>
+  <si>
+    <t>why ice streams and subglacial lakes are so abundant and dynamic in this region</t>
+  </si>
+  <si>
+    <t>that the election won’t be certified until after the first of the year</t>
   </si>
   <si>
     <t>, FBI Director James Comey might soon be replaced by the Trump Administration.</t>
   </si>
   <si>
-    <t>we need our president to speak directly to us and tell us the truth</t>
-  </si>
-  <si>
-    <t>this blackout will be caused by an astronomical event between Jupiter and Venus.</t>
-  </si>
-  <si>
-    <t>it has discharged nearly 186 million gallons of sewage over the last two summers</t>
-  </si>
-  <si>
-    <t>that a WAPO reporter named Beth offered her 1000$ to accuse Roy Moore</t>
-  </si>
-  <si>
-    <t>that the rights granted to the people in my district are not infringed upon</t>
-  </si>
-  <si>
-    <t>they are reaching out to an attorney, refusing to give any further statements</t>
-  </si>
-  <si>
-    <t>"scientists are nothing more than a bunch of mislead individuals anyway."</t>
-  </si>
-  <si>
-    <t>that the leader of the Catholic Church "is not a man of God</t>
-  </si>
-  <si>
     <t>western ice sheet collapse is "unstoppable" and could dramatically raise sea levels</t>
   </si>
   <si>
-    <t>we feel that he does not embody the values of the Tampa Bay Lightning</t>
-  </si>
-  <si>
-    <t>that their child has been effected negatively by a vaccine such as the MMR</t>
-  </si>
-  <si>
-    <t>"That means they are here illegally. I had to act."</t>
-  </si>
-  <si>
-    <t>that the election won’t be certified until after the first of the year</t>
-  </si>
-  <si>
-    <t>she was making him look like a bad person to have at the wedding</t>
-  </si>
-  <si>
-    <t>that the family friend had photographs of the reporter who reached out to her</t>
-  </si>
-  <si>
-    <t>why ice streams and subglacial lakes are so abundant and dynamic in this region</t>
-  </si>
-  <si>
-    <t>that Franciss unconventional teachings disqualified the Pope from calling himself a man of God</t>
-  </si>
-  <si>
-    <t>it would reduce premiums for families by an average of $2,500 per year</t>
-  </si>
-  <si>
     <t>that Obama is going to charge someone that has donated that much to their party</t>
   </si>
   <si>
-    <t>that he should report the occurrence to the FBI as well as the Secret Service</t>
+    <t>We remain devastated by the loss of her colleague Jose Melena in the tragic accident</t>
+  </si>
+  <si>
+    <t>Christina Turner, 45, was a victim of this policy before Obamacare’s passage</t>
+  </si>
+  <si>
+    <t>"If anybody was looking for an off-ramp, this is probably it</t>
+  </si>
+  <si>
+    <t>"until it is clear that players and team owners respect their country."</t>
+  </si>
+  <si>
+    <t>he eats his fried chicken, burgers, and fries with a knife and fork</t>
+  </si>
+  <si>
+    <t>"I have documents showing that Bin Laden is still on the CIA’s payroll</t>
+  </si>
+  <si>
+    <t>, a new resident has 60 days to obtain a New Hampshire drivers license.</t>
+  </si>
+  <si>
+    <t>six million people rely on it to heat, cool, or weatherize their homes</t>
+  </si>
+  <si>
+    <t>News reports have confirmed that actor Kirk Douglas died of natural causes late this afternoon</t>
   </si>
   <si>
     <t>that the United States of America has a distorted vision of the world and Americans</t>
@@ -3413,28 +3428,19 @@
     <t>The research section of the USDA studies everything from nutrition to climate change, and</t>
   </si>
   <si>
-    <t>he eats his fried chicken, burgers, and fries with a knife and fork</t>
-  </si>
-  <si>
-    <t>six million people rely on it to heat, cool, or weatherize their homes</t>
-  </si>
-  <si>
-    <t>News reports have confirmed that actor Kirk Douglas died of natural causes late this afternoon</t>
+    <t>The dangers of triclosan (and a related antibacterial chemical, triclocarban) are many</t>
   </si>
   <si>
     <t>You have to understand, this is something that would’ve never happened in L.A.</t>
   </si>
   <si>
-    <t>"I have documents showing that Bin Laden is still on the CIA’s payroll</t>
-  </si>
-  <si>
-    <t>We remain devastated by the loss of her colleague Jose Melena in the tragic accident</t>
-  </si>
-  <si>
-    <t>Melania has her priorities straight and she is a great example for our young women</t>
-  </si>
-  <si>
     <t>that the cause of death for Mr. Foster should be changed from suicide to homicide</t>
+  </si>
+  <si>
+    <t>This new gas tax does not increase [road] capacity anywhere in the state</t>
+  </si>
+  <si>
+    <t>Well, we’d have to start with ourselves, as with everything in life</t>
   </si>
   <si>
     <t xml:space="preserve">"Michelle?Talk about a wolf in sheepskin.".
@@ -3442,52 +3448,109 @@
  </t>
   </si>
   <si>
+    <t>that anyone who makes up sexual offenses "make things harder" for real victims</t>
+  </si>
+  <si>
+    <t>Melania has her priorities straight and she is a great example for our young women</t>
+  </si>
+  <si>
     <t>the womans note said: Our kids are upstairs, please take care of them</t>
   </si>
   <si>
-    <t>, a new resident has 60 days to obtain a New Hampshire drivers license.</t>
-  </si>
-  <si>
-    <t>"If anybody was looking for an off-ramp, this is probably it</t>
+    <t>that he should report the occurrence to the FBI as well as the Secret Service</t>
   </si>
   <si>
     <t>that Indians will be given a three month period in which to leave the country</t>
   </si>
   <si>
-    <t>This new gas tax does not increase [road] capacity anywhere in the state</t>
-  </si>
-  <si>
-    <t>Christina Turner, 45, was a victim of this policy before Obamacare’s passage</t>
-  </si>
-  <si>
-    <t>"until it is clear that players and team owners respect their country."</t>
-  </si>
-  <si>
-    <t>Well, we’d have to start with ourselves, as with everything in life</t>
-  </si>
-  <si>
-    <t>that anyone who makes up sexual offenses "make things harder" for real victims</t>
-  </si>
-  <si>
-    <t>The dangers of triclosan (and a related antibacterial chemical, triclocarban) are many</t>
+    <t>The worst part is that it’s not only human meat, it’s child meat</t>
+  </si>
+  <si>
+    <t>If state and local law enforcement will be prohibited from making any arrests anywhere in Illinois</t>
+  </si>
+  <si>
+    <t>since state and local law enforcement officers are prohibited from making any arrests anywhere in Illinois</t>
+  </si>
+  <si>
+    <t>the day of remembrance was scrapped so the Black Lives Matter movement wouldn’t be offended</t>
+  </si>
+  <si>
+    <t>that we should ban the full-on cover that cloaks women from head to toe</t>
+  </si>
+  <si>
+    <t>there are no hard feelings and that his client will continue to fight for womens rights</t>
   </si>
   <si>
     <t>that a portion of the next Star Wars movie will be filmed near Rosenberg, Texas</t>
   </si>
   <si>
+    <t>"this is a communist revolution" before unloading on the congregation, reloading several times</t>
+  </si>
+  <si>
+    <t>This historic moment is an opportunity to join together as one city and redefine our future</t>
+  </si>
+  <si>
+    <t>" Rep. Susan Collins (R-Maine) said to News radio WGAN. "</t>
+  </si>
+  <si>
+    <t>, Florez refused to comment and messages seeking comment from Rodriguez were not immediately returned.</t>
+  </si>
+  <si>
+    <t>"This is not a blame game, we don't have time to place blame</t>
+  </si>
+  <si>
+    <t>that curing diabetes and depression is the most bizarre reason for cannibalism he’s ever heard</t>
+  </si>
+  <si>
+    <t>We love that our three children have their own views and concerns about current political issues</t>
+  </si>
+  <si>
+    <t>an overwhelming smell (which was later identified as decomposing flesh) filled the home.</t>
+  </si>
+  <si>
+    <t>Based on scientific evidence, the balance of benefit and risk is favorable for these products</t>
+  </si>
+  <si>
+    <t>that former First Lady Michelle Obama "isn’t fit to clean to clean her toilet</t>
+  </si>
+  <si>
     <t>that "not even slaves" suffered as much as white people are being targeted nowadays</t>
   </si>
   <si>
-    <t>the day of remembrance was scrapped so the Black Lives Matter movement wouldn’t be offended</t>
+    <t>"Senator Strange is going to be here through the end of this session."</t>
+  </si>
+  <si>
+    <t>SB 5 puts women across Missouri at risk of losing their jobs or their homes:</t>
+  </si>
+  <si>
+    <t>"That’s what they’re supposed to do as a publicly traded airline."</t>
+  </si>
+  <si>
+    <t>California should use existing road funds for roads only, before taking more money from taxpayers</t>
   </si>
   <si>
     <t>that Seroussi’s study has provided evidence of geothermal activity underneath the world largest ice sheet</t>
   </si>
   <si>
-    <t>"This is not a blame game, we don't have time to place blame</t>
-  </si>
-  <si>
-    <t>that curing diabetes and depression is the most bizarre reason for cannibalism he’s ever heard</t>
+    <t>This is not, and has never been, about the military or disrespecting the flag</t>
+  </si>
+  <si>
+    <t>that lawmakers were calling for an investigation and that the airline lost millions in stock value</t>
+  </si>
+  <si>
+    <t>Solving the Wrong Problem Browns gas-tax hike will not solve the states traffic problems</t>
+  </si>
+  <si>
+    <t>Explaining that death threats from Islamic State terrorists have already had an impact on her son</t>
+  </si>
+  <si>
+    <t>that they would probably also have been compensated for the inconvenience in some way or another</t>
+  </si>
+  <si>
+    <t>"no one in the press would say it was her staffs’ fault."</t>
+  </si>
+  <si>
+    <t>"We are always willing to bring someone in from another country to run our corporations</t>
   </si>
   <si>
     <t xml:space="preserve">, President Putin does not even consider Pope Francis to be Christian.
@@ -3495,103 +3558,62 @@
  </t>
   </si>
   <si>
-    <t>an overwhelming smell (which was later identified as decomposing flesh) filled the home.</t>
-  </si>
-  <si>
-    <t>This historic moment is an opportunity to join together as one city and redefine our future</t>
-  </si>
-  <si>
-    <t>" Rep. Susan Collins (R-Maine) said to News radio WGAN. "</t>
-  </si>
-  <si>
-    <t>SB 5 puts women across Missouri at risk of losing their jobs or their homes:</t>
-  </si>
-  <si>
-    <t>since state and local law enforcement officers are prohibited from making any arrests anywhere in Illinois</t>
-  </si>
-  <si>
-    <t>The worst part is that it’s not only human meat, it’s child meat</t>
-  </si>
-  <si>
-    <t>Explaining that death threats from Islamic State terrorists have already had an impact on her son</t>
-  </si>
-  <si>
-    <t>, Florez refused to comment and messages seeking comment from Rodriguez were not immediately returned.</t>
-  </si>
-  <si>
-    <t>If state and local law enforcement will be prohibited from making any arrests anywhere in Illinois</t>
-  </si>
-  <si>
-    <t>"We are always willing to bring someone in from another country to run our corporations</t>
-  </si>
-  <si>
-    <t>that we should ban the full-on cover that cloaks women from head to toe</t>
-  </si>
-  <si>
-    <t>"this is a communist revolution" before unloading on the congregation, reloading several times</t>
-  </si>
-  <si>
-    <t>"no one in the press would say it was her staffs’ fault."</t>
-  </si>
-  <si>
     <t>"But I bet even if Hillary had to sleep in a youth hostel,"</t>
   </si>
   <si>
-    <t>This is not, and has never been, about the military or disrespecting the flag</t>
-  </si>
-  <si>
-    <t>California should use existing road funds for roads only, before taking more money from taxpayers</t>
-  </si>
-  <si>
-    <t>We love that our three children have their own views and concerns about current political issues</t>
-  </si>
-  <si>
-    <t>Solving the Wrong Problem Browns gas-tax hike will not solve the states traffic problems</t>
-  </si>
-  <si>
-    <t>"That’s what they’re supposed to do as a publicly traded airline."</t>
-  </si>
-  <si>
-    <t>that former First Lady Michelle Obama "isn’t fit to clean to clean her toilet</t>
-  </si>
-  <si>
-    <t>there are no hard feelings and that his client will continue to fight for womens rights</t>
-  </si>
-  <si>
-    <t>that lawmakers were calling for an investigation and that the airline lost millions in stock value</t>
-  </si>
-  <si>
-    <t>Based on scientific evidence, the balance of benefit and risk is favorable for these products</t>
-  </si>
-  <si>
-    <t>that they would probably also have been compensated for the inconvenience in some way or another</t>
-  </si>
-  <si>
-    <t>"Senator Strange is going to be here through the end of this session."</t>
+    <t>People want sequels to all of the great movies from the past and they love remakes too</t>
+  </si>
+  <si>
+    <t>that Foster had not one but two gunshot wounds, both of which would have been fatal</t>
+  </si>
+  <si>
+    <t>This is first time theres been an actual specimen recovered, so this is very exciting</t>
+  </si>
+  <si>
+    <t>They (charter schools) are actually failing in a greater capacity than the public school systems</t>
+  </si>
+  <si>
+    <t>that she make a copy of both the recording and the photo for herself as back up</t>
+  </si>
+  <si>
+    <t>that he will personally see to it that all of the bureau’s resources are made available</t>
+  </si>
+  <si>
+    <t>"Osama Bin Laden was one of the CIA’s most efficient operatives for a long time</t>
+  </si>
+  <si>
+    <t>that if ISIS terrorists lay a finger on Barron Trump, she will scratch his eyes out</t>
   </si>
   <si>
     <t>that he was installed in unusual circumstances, with the assistance of globalist powerbrokers like George Soros</t>
   </si>
   <si>
-    <t>"Osama Bin Laden was one of the CIA’s most efficient operatives for a long time</t>
-  </si>
-  <si>
-    <t>that if ISIS terrorists lay a finger on Barron Trump, she will scratch his eyes out</t>
-  </si>
-  <si>
     <t>"If that means removing the bible from our shelves, then so be it."</t>
   </si>
   <si>
-    <t>This is first time theres been an actual specimen recovered, so this is very exciting</t>
-  </si>
-  <si>
-    <t>, Australia is enforcing democratic values and a disputed view of history which contradicts Islamic beliefs.</t>
-  </si>
-  <si>
-    <t>People want sequels to all of the great movies from the past and they love remakes too</t>
+    <t>that her mother "did things that were definitely ahead of her time, as a woman</t>
+  </si>
+  <si>
+    <t>Americans need to be ruled by a world government as soon as possible for their own good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, Brazile also shut her blinds so that snipers could not see her.
+ .
+ </t>
+  </si>
+  <si>
+    <t>that there have been "multiple fatalities" and the shooter has been "taken down.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, someone from the office was sent to pick up the phone call.
+ .
+ </t>
   </si>
   <si>
     <t>that he was currently ‘in a wheelchair, connected up to tubes, in a hospital</t>
+  </si>
+  <si>
+    <t>My clients main concern is that because of the yearbook thing, nobody will believe her story</t>
   </si>
   <si>
     <t>".
@@ -3599,89 +3621,22 @@
  Asked how the situation could be bettered, Hagee replied: "</t>
   </si>
   <si>
-    <t>that she make a copy of both the recording and the photo for herself as back up</t>
-  </si>
-  <si>
-    <t>They (charter schools) are actually failing in a greater capacity than the public school systems</t>
-  </si>
-  <si>
     <t>the translation option may return but made no specific commitment on timing when asked about it Monday</t>
   </si>
   <si>
+    <t>, Australia is enforcing democratic values and a disputed view of history which contradicts Islamic beliefs.</t>
+  </si>
+  <si>
     <t>that the Russian government "has always been aware of the situation since the early 1970s"</t>
   </si>
   <si>
-    <t>Americans need to be ruled by a world government as soon as possible for their own good</t>
+    <t>that a pivotal, close election was likely changed through voter fraud on November 8, 2016</t>
   </si>
   <si>
     <t>California spends 4.7 times the national average for every mile of roadway we build and maintain,</t>
   </si>
   <si>
-    <t>that her mother "did things that were definitely ahead of her time, as a woman</t>
-  </si>
-  <si>
-    <t>that a pivotal, close election was likely changed through voter fraud on November 8, 2016</t>
-  </si>
-  <si>
-    <t>that he will personally see to it that all of the bureau’s resources are made available</t>
-  </si>
-  <si>
-    <t>that Foster had not one but two gunshot wounds, both of which would have been fatal</t>
-  </si>
-  <si>
-    <t>My clients main concern is that because of the yearbook thing, nobody will believe her story</t>
-  </si>
-  <si>
-    <t>that there have been "multiple fatalities" and the shooter has been "taken down.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, Brazile also shut her blinds so that snipers could not see her.
- .
- </t>
-  </si>
-  <si>
     <t>I feel like Im now in good company with the Volcker rule and the Buffett rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, someone from the office was sent to pick up the phone call.
- .
- </t>
-  </si>
-  <si>
-    <t>both former mayors failed to adequately maintain the sewer system in the 14 years before he took office</t>
-  </si>
-  <si>
-    <t>that autism is a potential adverse side-effect of the DTap vaccine in an accompanying online pamphlet</t>
-  </si>
-  <si>
-    <t>The speaker was very much for this bill and he tried to persuade me to change my opinion</t>
-  </si>
-  <si>
-    <t>There are a lot of people who want to be loyal to the Republican Party, including me</t>
-  </si>
-  <si>
-    <t>which awards were given out or whether all 10 of those arrested this summer were among the recipients</t>
-  </si>
-  <si>
-    <t>If you serve at the pleasure of the president, you serve at the pleasure of the president</t>
-  </si>
-  <si>
-    <t>People saw incumbent and an R by his name, so they assumed that he supported Republican values</t>
-  </si>
-  <si>
-    <t>, Michelle took the opportunity to make fun of President Trump then immediately gushed over the queen.</t>
-  </si>
-  <si>
-    <t>"among distinguished scientists with specialized or significant experience in agricultural research, education and economics."</t>
-  </si>
-  <si>
-    <t>I told them all along I didn’t care if they went to the county down the street</t>
-  </si>
-  <si>
-    <t>After growing up in a split home – one parent was a Republican, the other a Democrat</t>
-  </si>
-  <si>
-    <t>It shouldnt be surprising then that intelligence agencies are refusing to share information with his administration:</t>
   </si>
   <si>
     <t xml:space="preserve">, some cigarettes could be coming from states with taxes lower than California’s.
@@ -3689,13 +3644,94 @@
  </t>
   </si>
   <si>
+    <t>It shouldnt be surprising then that intelligence agencies are refusing to share information with his administration:</t>
+  </si>
+  <si>
+    <t>There are a lot of people who want to be loyal to the Republican Party, including me</t>
+  </si>
+  <si>
+    <t>The speaker was very much for this bill and he tried to persuade me to change my opinion</t>
+  </si>
+  <si>
+    <t>that autism is a potential adverse side-effect of the DTap vaccine in an accompanying online pamphlet</t>
+  </si>
+  <si>
+    <t>both former mayors failed to adequately maintain the sewer system in the 14 years before he took office</t>
+  </si>
+  <si>
+    <t>, Michelle took the opportunity to make fun of President Trump then immediately gushed over the queen.</t>
+  </si>
+  <si>
+    <t>which awards were given out or whether all 10 of those arrested this summer were among the recipients</t>
+  </si>
+  <si>
+    <t>People saw incumbent and an R by his name, so they assumed that he supported Republican values</t>
+  </si>
+  <si>
+    <t>that she "wouldn’t be surprised" if the allegations about the reporter stood to be true</t>
+  </si>
+  <si>
+    <t>that they "have the right to compete in the free market regardless of who the competition is</t>
+  </si>
+  <si>
+    <t>After growing up in a split home – one parent was a Republican, the other a Democrat</t>
+  </si>
+  <si>
+    <t>I told them all along I didn’t care if they went to the county down the street</t>
+  </si>
+  <si>
+    <t>If you serve at the pleasure of the president, you serve at the pleasure of the president</t>
+  </si>
+  <si>
+    <t>"among distinguished scientists with specialized or significant experience in agricultural research, education and economics."</t>
+  </si>
+  <si>
     <t>that The Washington Post has been calling and harassing our friends and family, trying to find garbage</t>
   </si>
   <si>
-    <t>that she "wouldn’t be surprised" if the allegations about the reporter stood to be true</t>
-  </si>
-  <si>
-    <t>that they "have the right to compete in the free market regardless of who the competition is</t>
+    <t>the 21 foot-long giant squid to be a very rare fresh-water species of genus Architeuthis</t>
+  </si>
+  <si>
+    <t>the girls were detained for more than a year before the trial and never confessed committing any crime.</t>
+  </si>
+  <si>
+    <t>that crews had begun removing the statue, the second of four planned removals of Confederacy-related monuments</t>
+  </si>
+  <si>
+    <t>that any quill that had written God’s name was holy and should not be used for regular words</t>
+  </si>
+  <si>
+    <t>The shooting of Harris County Precinct 3 Assistant Chief Deputy Clinton Greenwood did not appear to be random,</t>
+  </si>
+  <si>
+    <t>that Jackson saw the Civil War coming and would have prevented it had he not died 16 years earlier</t>
+  </si>
+  <si>
+    <t>California lawmakers used road funds as slush funds for their pet projects in the past, causing todays problems</t>
+  </si>
+  <si>
+    <t>that Schultz seemed hostile and intolerant of any shareholders who objected to gay marriage for moral or religious reasons</t>
+  </si>
+  <si>
+    <t>there would be no absolute tax cut for the upper class, meaning no net cut after lost deductions</t>
+  </si>
+  <si>
+    <t>if any of these psychopaths so much as lay a finger on Barron there will be hell to pay</t>
+  </si>
+  <si>
+    <t>that the intelligence community considered protecting its sources and the people cultivating them to be their most sacred obligation</t>
+  </si>
+  <si>
+    <t>that Trump’s racist remarks were "the most un-American thing from a politician since Joe McCarthy</t>
+  </si>
+  <si>
+    <t>"Mothers have enough decency to get out of this store, it’s a dangerous place,"</t>
+  </si>
+  <si>
+    <t>that with 97 percent of that vote counted, Justice Roy Moore now leads the race by 5014 votes</t>
+  </si>
+  <si>
+    <t>that immigrants should adopt the culture of their host nation or be allowed to force changes to suit them</t>
   </si>
   <si>
     <t>".
@@ -3703,10 +3739,16 @@
  Ships headed for Africa were re-routed through the Panama Canal at "</t>
   </si>
   <si>
-    <t>the 21 foot-long giant squid to be a very rare fresh-water species of genus Architeuthis</t>
-  </si>
-  <si>
-    <t>that Jackson saw the Civil War coming and would have prevented it had he not died 16 years earlier</t>
+    <t>that he is "tired of the L.A. lifestyle" and is looking for a big change in life</t>
+  </si>
+  <si>
+    <t>the Baker administration didn't spend enough to keep the system ahead of the natural curve of deteriorating pipes</t>
+  </si>
+  <si>
+    <t>Our mothers and women of the old times were the women every man deserved and was blessed to have</t>
+  </si>
+  <si>
+    <t>Women in this country really need to learn to either keep their legs closed or their other orifices open</t>
   </si>
   <si>
     <t>"He dreams of a world government and a global communist system of repression.
@@ -3714,125 +3756,92 @@
  "</t>
   </si>
   <si>
-    <t>that crews had begun removing the statue, the second of four planned removals of Confederacy-related monuments</t>
-  </si>
-  <si>
-    <t>the girls were detained for more than a year before the trial and never confessed committing any crime.</t>
-  </si>
-  <si>
-    <t>that Trump’s racist remarks were "the most un-American thing from a politician since Joe McCarthy</t>
-  </si>
-  <si>
-    <t>The shooting of Harris County Precinct 3 Assistant Chief Deputy Clinton Greenwood did not appear to be random,</t>
-  </si>
-  <si>
-    <t>that with 97 percent of that vote counted, Justice Roy Moore now leads the race by 5014 votes</t>
-  </si>
-  <si>
-    <t>that immigrants should adopt the culture of their host nation or be allowed to force changes to suit them</t>
-  </si>
-  <si>
-    <t>that Schultz seemed hostile and intolerant of any shareholders who objected to gay marriage for moral or religious reasons</t>
-  </si>
-  <si>
-    <t>the Baker administration didn't spend enough to keep the system ahead of the natural curve of deteriorating pipes</t>
-  </si>
-  <si>
     <t>that the Constitution "clearly states" what the President of the United States can and cannot do</t>
   </si>
   <si>
-    <t>there would be no absolute tax cut for the upper class, meaning no net cut after lost deductions</t>
-  </si>
-  <si>
-    <t>Our mothers and women of the old times were the women every man deserved and was blessed to have</t>
-  </si>
-  <si>
-    <t>Women in this country really need to learn to either keep their legs closed or their other orifices open</t>
-  </si>
-  <si>
-    <t>that the intelligence community considered protecting its sources and the people cultivating them to be their most sacred obligation</t>
-  </si>
-  <si>
-    <t>that he is "tired of the L.A. lifestyle" and is looking for a big change in life</t>
-  </si>
-  <si>
-    <t>if any of these psychopaths so much as lay a finger on Barron there will be hell to pay</t>
-  </si>
-  <si>
-    <t>"Mothers have enough decency to get out of this store, it’s a dangerous place,"</t>
-  </si>
-  <si>
-    <t>that any quill that had written God’s name was holy and should not be used for regular words</t>
-  </si>
-  <si>
-    <t>California lawmakers used road funds as slush funds for their pet projects in the past, causing todays problems</t>
-  </si>
-  <si>
-    <t>that he is the right choice for Senate now that former Senator and current Attorney General Jeff Sessions is gone</t>
+    <t>Their plans were hidden from plain sight in what they said was a ‘design for a new video game</t>
+  </si>
+  <si>
+    <t>she discovered a joint fundraising agreement "between the DNC, the Hillary Victory Fund, and Hillary for America</t>
   </si>
   <si>
     <t xml:space="preserve">More reports have come to the surface that are bringing the bizarre story to an entirely new level.
  </t>
   </si>
   <si>
+    <t>that he told the family friend to bring the recording and the photograph to her local district attorney’s office</t>
+  </si>
+  <si>
+    <t>that he is the right choice for Senate now that former Senator and current Attorney General Jeff Sessions is gone</t>
+  </si>
+  <si>
     <t>that they will use all the tools at its disposal to sweep out various NGOs that are tied to Soros</t>
   </si>
   <si>
-    <t>she discovered a joint fundraising agreement "between the DNC, the Hillary Victory Fund, and Hillary for America</t>
-  </si>
-  <si>
     <t>"Megyn had high hopes when she left Fox that people would still take her seriously as a journalist.</t>
   </si>
   <si>
-    <t>that he told the family friend to bring the recording and the photograph to her local district attorney’s office</t>
-  </si>
-  <si>
-    <t>Their plans were hidden from plain sight in what they said was a ‘design for a new video game</t>
+    <t>"I didn’t see how we could have that amount of heat and still have ice on top of it</t>
+  </si>
+  <si>
+    <t>that unless the former First Ladys crimes are seen to be punished, everyday Americans will forever know, deep down</t>
   </si>
   <si>
     <t>Hopefully the walleye can keep the tiny-giant squid population under control, else there is some cause for concern</t>
   </si>
   <si>
+    <t>that he would reinstate a national day of remembrance for fallen officers that the traitor before him had done away with</t>
+  </si>
+  <si>
+    <t>"President Trump’s reaction has been criticized by the Left, but I don’t see what he did wrong</t>
+  </si>
+  <si>
+    <t>Rep. Debbie Wasserman Schultz of Florida, who ran the organization at the time, "was not a good manager</t>
+  </si>
+  <si>
+    <t>In no uncertain terms, hate-motivated speech and actions have no place in Minneapolis nor will they be tolerated</t>
+  </si>
+  <si>
+    <t>that I’m not from there and offers to take me in to get lunch while my car is getting fixed</t>
+  </si>
+  <si>
     <t>this was an "extraordinary unusual" letter and that he had never heard of Congressional office taking such action before</t>
   </si>
   <si>
-    <t>that he would reinstate a national day of remembrance for fallen officers that the traitor before him had done away with</t>
-  </si>
-  <si>
-    <t>"I didn’t see how we could have that amount of heat and still have ice on top of it</t>
+    <t>Its not easy to take when you see people around you being shot and you dont have a weapon yourself</t>
+  </si>
+  <si>
+    <t>And while we’re on the subject, I kind of have to say, it’s funny how taxes work</t>
+  </si>
+  <si>
+    <t>I DONT WANT TO THINK ABOUT THAT POSSIBILITY, BUT IF IT SHOULD BE, THEN EVERYTHING IS UP FOR GRABS</t>
+  </si>
+  <si>
+    <t>that the United Nations doesnt have enough power and must be granted full governmental control for the good of humanity</t>
   </si>
   <si>
     <t>she can just go quietly into the night, free from consequences from the many wrongdoings she has been charged with</t>
   </si>
   <si>
-    <t>Rep. Debbie Wasserman Schultz of Florida, who ran the organization at the time, "was not a good manager</t>
-  </si>
-  <si>
     <t>Barron was admitted to hospital on Sunday morning during a family holiday in NJ, and is being treated for pneumonia</t>
   </si>
   <si>
-    <t>that the United Nations doesnt have enough power and must be granted full governmental control for the good of humanity</t>
-  </si>
-  <si>
-    <t>In no uncertain terms, hate-motivated speech and actions have no place in Minneapolis nor will they be tolerated</t>
-  </si>
-  <si>
-    <t>Its not easy to take when you see people around you being shot and you dont have a weapon yourself</t>
-  </si>
-  <si>
-    <t>that I’m not from there and offers to take me in to get lunch while my car is getting fixed</t>
-  </si>
-  <si>
-    <t>I DONT WANT TO THINK ABOUT THAT POSSIBILITY, BUT IF IT SHOULD BE, THEN EVERYTHING IS UP FOR GRABS</t>
-  </si>
-  <si>
-    <t>"President Trump’s reaction has been criticized by the Left, but I don’t see what he did wrong</t>
-  </si>
-  <si>
-    <t>And while we’re on the subject, I kind of have to say, it’s funny how taxes work</t>
-  </si>
-  <si>
-    <t>that unless the former First Ladys crimes are seen to be punished, everyday Americans will forever know, deep down</t>
+    <t>Queen Elizabeth has personally removed Michelle and Barack Obama from the guest list for Prince Harry’s wedding to Meghan Markle,</t>
+  </si>
+  <si>
+    <t>Im sure there are people in the community who feel they dont know where hes coming from on Russia</t>
+  </si>
+  <si>
+    <t>I will not compromise the public safety of the people of Minneapolis to satisfy Trumps desire to put politics before public safety</t>
+  </si>
+  <si>
+    <t>I would like my rights represented and those of my son – very selfish views and I think everyone else has them</t>
+  </si>
+  <si>
+    <t>"And these days it has become so obvious that I’m honestly surprised we’re not having riots throughout the country</t>
+  </si>
+  <si>
+    <t>The city of Minneapolis has set up a hotline for residents to report hate-crime incidents and other acts of intolerance</t>
   </si>
   <si>
     <t>Organized crime gangs are buying hundreds or thousands of gallons of diesel fuel, and reselling them to make an untraceable profit</t>
@@ -3841,137 +3850,93 @@
     <t>Roy Moore seduced and molested her when she was 14-years-old and he was in his early 30s,</t>
   </si>
   <si>
-    <t>"And these days it has become so obvious that I’m honestly surprised we’re not having riots throughout the country</t>
-  </si>
-  <si>
-    <t>The city of Minneapolis has set up a hotline for residents to report hate-crime incidents and other acts of intolerance</t>
-  </si>
-  <si>
-    <t>Queen Elizabeth has personally removed Michelle and Barack Obama from the guest list for Prince Harry’s wedding to Meghan Markle,</t>
-  </si>
-  <si>
-    <t>Im sure there are people in the community who feel they dont know where hes coming from on Russia</t>
+    <t>"We thought about creating a new denomination for Obama, but George Washington has had plenty of time in the sun</t>
+  </si>
+  <si>
+    <t>This ruling is an important first step in our litigation against President Trump for unlawfully receiving emoluments from foreign and domestic governments</t>
+  </si>
+  <si>
+    <t>Nothing in this Act shall be construed as permitting health insurance issuers to discriminate in rates for health insurance coverage by gender</t>
   </si>
   <si>
     <t>the president shall not receive any emolument, other than fixed compensation, from the United States, or any of them</t>
   </si>
   <si>
-    <t>This ruling is an important first step in our litigation against President Trump for unlawfully receiving emoluments from foreign and domestic governments</t>
-  </si>
-  <si>
-    <t>Nothing in this Act shall be construed as permitting health insurance issuers to discriminate in rates for health insurance coverage by gender</t>
-  </si>
-  <si>
-    <t>I would like my rights represented and those of my son – very selfish views and I think everyone else has them</t>
-  </si>
-  <si>
-    <t>I will not compromise the public safety of the people of Minneapolis to satisfy Trumps desire to put politics before public safety</t>
+    <t>The thing was massive, and contained enough materials to make hundreds, if not thousands, of pounds of crystal meth</t>
   </si>
   <si>
     <t>that the phenomenon will start on November 15 at 3:00 am and will most likely last until November 30, 4:45 pm</t>
   </si>
   <si>
-    <t>The thing was massive, and contained enough materials to make hundreds, if not thousands, of pounds of crystal meth</t>
-  </si>
-  <si>
-    <t>"We thought about creating a new denomination for Obama, but George Washington has had plenty of time in the sun</t>
+    <t>that Obama has effectively condoned violence against conservatives and white people, leaving "normal" people helpless in the face of anarchy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">she was pressured by the doctor into vaccinating her son and both of their lives have never been the same since.
+ </t>
+  </si>
+  <si>
+    <t>the Washington Post, a paper that has officially endorsed Jones, has actually been bribing people to dig up dirt on Moore</t>
+  </si>
+  <si>
+    <t>that the Kremlins election interference is no movie script, and that he did not know whether the allegations were true or not</t>
+  </si>
+  <si>
+    <t>used it as her campaign’s own personal fundraising vehicle, and only gave the organization a stipend with which to live on</t>
+  </si>
+  <si>
+    <t>, 48-year old Henri Paul Johnson decided to take a nap on a stretcher after working for sixteen hours straight.</t>
+  </si>
+  <si>
+    <t>that between them they had raised more signatures opposing Trump’s executive orders on immigration and travel than any other lawmakers in Washington</t>
+  </si>
+  <si>
+    <t>The DNC also was required to consult with the campaign about all other staffing, budgeting, data, analytics, and mailings</t>
+  </si>
+  <si>
+    <t>"Hacks: The Inside Story of the Break-ins and Breakdowns That Put Donald Trump in the White House,"</t>
+  </si>
+  <si>
+    <t>Well, just because you’re a member of the Trump administration doesn’t mean you don’t have to pay the bills</t>
+  </si>
+  <si>
+    <t>These allegations are completely false and are a desperate political attack by the National Democrat Party and The Washington Post on this campaign</t>
   </si>
   <si>
     <t>hes going to raise their gas taxes to the highest theyve ever been in history, and to top it off</t>
   </si>
   <si>
-    <t>The service, operated through the citys 311 helpline, is aimed to aid targets of any harassing behaviors motivated by prejudice,</t>
+    <t>that the fact that youre even using the Second Amendment as an argument against banning assault weapons shows me youre ignorant</t>
+  </si>
+  <si>
+    <t>Most of the people who have C-sections identify as women, so that’s a shorthand for a gender discriminatory policy</t>
+  </si>
+  <si>
+    <t>that they were disappointed that they werent able to use their company discount to get meth before the place was shut down</t>
   </si>
   <si>
     <t xml:space="preserve">three-quarters of California’s largest cities saw violent crime rise in 2015, with Sacramento’s up 25 percent.
  </t>
   </si>
   <si>
-    <t>These allegations are completely false and are a desperate political attack by the National Democrat Party and The Washington Post on this campaign</t>
-  </si>
-  <si>
-    <t>The DNC also was required to consult with the campaign about all other staffing, budgeting, data, analytics, and mailings</t>
-  </si>
-  <si>
-    <t>the Washington Post, a paper that has officially endorsed Jones, has actually been bribing people to dig up dirt on Moore</t>
-  </si>
-  <si>
-    <t>"Hacks: The Inside Story of the Break-ins and Breakdowns That Put Donald Trump in the White House,"</t>
-  </si>
-  <si>
-    <t>, 48-year old Henri Paul Johnson decided to take a nap on a stretcher after working for sixteen hours straight.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">she was pressured by the doctor into vaccinating her son and both of their lives have never been the same since.
- </t>
-  </si>
-  <si>
-    <t>Most of the people who have C-sections identify as women, so that’s a shorthand for a gender discriminatory policy</t>
-  </si>
-  <si>
-    <t>used it as her campaign’s own personal fundraising vehicle, and only gave the organization a stipend with which to live on</t>
-  </si>
-  <si>
-    <t>that Obama has effectively condoned violence against conservatives and white people, leaving "normal" people helpless in the face of anarchy</t>
+    <t>The service, operated through the citys 311 helpline, is aimed to aid targets of any harassing behaviors motivated by prejudice,</t>
+  </si>
+  <si>
+    <t>Devin Kelley, who killed at least 27 people and injured many more, was one of two shooters in the church,</t>
   </si>
   <si>
     <t>that they uncovered evidence of such massive corruption that the agents involved realized that damned near the entire government could be brought down</t>
   </si>
   <si>
-    <t>that the Kremlins election interference is no movie script, and that he did not know whether the allegations were true or not</t>
-  </si>
-  <si>
-    <t>Devin Kelley, who killed at least 27 people and injured many more, was one of two shooters in the church,</t>
-  </si>
-  <si>
-    <t>that the fact that youre even using the Second Amendment as an argument against banning assault weapons shows me youre ignorant</t>
-  </si>
-  <si>
-    <t>Well, just because you’re a member of the Trump administration doesn’t mean you don’t have to pay the bills</t>
-  </si>
-  <si>
-    <t>that between them they had raised more signatures opposing Trump’s executive orders on immigration and travel than any other lawmakers in Washington</t>
-  </si>
-  <si>
-    <t>that they were disappointed that they werent able to use their company discount to get meth before the place was shut down</t>
-  </si>
-  <si>
-    <t>that in the two months before the tax increase took effect, tobacco tax revenue ran 24 percent and 37 percent above 2016 levels</t>
-  </si>
-  <si>
-    <t>Rep. John Conyers (D-MI) and the CBC have reissued a bill to study reparations for Americas past sin of slavery</t>
-  </si>
-  <si>
-    <t>that the reorganization will allow the team to stay above water while they pitch a move to the now-empty St. Louis market</t>
+    <t>For the first time, the Comey memo pushes the litany of controversies surrounding Trump into the scope of the United States criminal code</t>
+  </si>
+  <si>
+    <t>that part of him would like to just spend time working on screenplays, playing guitar and surfing with his wife and teenage triplets</t>
+  </si>
+  <si>
+    <t>President Trump green lit the operation following a series of telephone calls to United States military commanders and to Thailand Prime Minister Nik Bukharin</t>
   </si>
   <si>
     <t>this "internal discussion" hinged largely on who else, on a larger scale, would work to represent Louis’ best interests</t>
-  </si>
-  <si>
-    <t>A new scandal has happened after high ranking officials from the Chinese space program called the American moon landing "a complete hoax"</t>
-  </si>
-  <si>
-    <t>President Trump green lit the operation following a series of telephone calls to United States military commanders and to Thailand Prime Minister Nik Bukharin</t>
-  </si>
-  <si>
-    <t>that part of him would like to just spend time working on screenplays, playing guitar and surfing with his wife and teenage triplets</t>
-  </si>
-  <si>
-    <t>that it would not because "the embrace of the American people would be enough to ensure that the person does their very best</t>
-  </si>
-  <si>
-    <t>"blatant disregard for the duties of civil servants, a violation of the public trust and a 2nd-degree felony."</t>
-  </si>
-  <si>
-    <t>that Judge Gonzalo Curiel, who is presiding over the Trump University case, has been biased toward him because of his Latino heritage</t>
-  </si>
-  <si>
-    <t>For the first time, the Comey memo pushes the litany of controversies surrounding Trump into the scope of the United States criminal code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, about $3,363,282,409.21 in damages have been paid for adverse reactions and deaths from vaccines between 1989 to 2017.
- .
- </t>
   </si>
   <si>
     <t>".
@@ -3981,28 +3946,57 @@
  "</t>
   </si>
   <si>
+    <t>that in the two months before the tax increase took effect, tobacco tax revenue ran 24 percent and 37 percent above 2016 levels</t>
+  </si>
+  <si>
+    <t>that it would not because "the embrace of the American people would be enough to ensure that the person does their very best</t>
+  </si>
+  <si>
+    <t>it will abide by the wishes of the Secretary of State before certifying the vote and sending it to the governor for his signature</t>
+  </si>
+  <si>
+    <t>"blatant disregard for the duties of civil servants, a violation of the public trust and a 2nd-degree felony."</t>
+  </si>
+  <si>
+    <t>that the reorganization will allow the team to stay above water while they pitch a move to the now-empty St. Louis market</t>
+  </si>
+  <si>
+    <t>A new scandal has happened after high ranking officials from the Chinese space program called the American moon landing "a complete hoax"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, about $3,363,282,409.21 in damages have been paid for adverse reactions and deaths from vaccines between 1989 to 2017.
+ .
+ </t>
+  </si>
+  <si>
+    <t>that Judge Gonzalo Curiel, who is presiding over the Trump University case, has been biased toward him because of his Latino heritage</t>
+  </si>
+  <si>
     <t>that they will be putting a ban on triclosana common antibacterial agent used in soaps, detergents, toys, cosmetics, and toothpaste</t>
   </si>
   <si>
-    <t>it will abide by the wishes of the Secretary of State before certifying the vote and sending it to the governor for his signature</t>
-  </si>
-  <si>
-    <t>the citizenship pledge supporting democratic values, are a part of an oppressive campaign by Australian authorities of forced assimilation of the Muslim community.</t>
+    <t>Rep. John Conyers (D-MI) and the CBC have reissued a bill to study reparations for Americas past sin of slavery</t>
+  </si>
+  <si>
+    <t>We were just, you know, taking an evening walk along the beach, heading out to the sandbar when we stumbled across it</t>
+  </si>
+  <si>
+    <t>that President Trump is soon going to move forward with an executive order that "cancels taxes for extra productive people in the U.S. economy</t>
+  </si>
+  <si>
+    <t>that if his chickens come home to roost in my house, if anything happens to my son, I will scratch his eyes out</t>
+  </si>
+  <si>
+    <t>that Jesus Christ made himself the devil, the serpent, for us, according to LOsservatore Romano, the daily newspaper of the Vatican</t>
+  </si>
+  <si>
+    <t>that "in this world of crimes and deaths that surround us, a simple blasphemy does not get that much attention when it should</t>
   </si>
   <si>
     <t>"he knows all there is to know about following the letter of the law, especially when it comes to paying taxes."</t>
   </si>
   <si>
-    <t>We were just, you know, taking an evening walk along the beach, heading out to the sandbar when we stumbled across it</t>
-  </si>
-  <si>
-    <t>that President Trump is soon going to move forward with an executive order that "cancels taxes for extra productive people in the U.S. economy</t>
-  </si>
-  <si>
-    <t>that "in this world of crimes and deaths that surround us, a simple blasphemy does not get that much attention when it should</t>
-  </si>
-  <si>
-    <t>that Jesus Christ made himself the devil, the serpent, for us, according to LOsservatore Romano, the daily newspaper of the Vatican</t>
+    <t>that ISIS would be immediately surrendering its fight to establish a powerful caliphate after viewing an interview in which pop singer Katy Perry said,</t>
   </si>
   <si>
     <t xml:space="preserve">, Turner’s potential insurance provider turned her away for taking anti-AIDS medication after being drugged and sexually assaulted.
@@ -4010,22 +4004,19 @@
  </t>
   </si>
   <si>
+    <t>why unions and big business joined together to finance an extensive radio-and-newspaper campaign to promote the gas and car tax increase</t>
+  </si>
+  <si>
+    <t>I know its a time of concern for people, who see our rights being assailed, being trampled on and even being rolled back</t>
+  </si>
+  <si>
     <t>hes also looking into charges against the other Moore accusers as well as the employees of that mall that said he was a pedophile</t>
   </si>
   <si>
     <t>Ive called on Congress and our intelligence community to use every resource available to conduct a thorough investigation to determine exactly how this happened</t>
   </si>
   <si>
-    <t>that a Washington Post reporter who was called "Beth" had offered to pay the woman a large sum of money if she wold</t>
-  </si>
-  <si>
-    <t>that if his chickens come home to roost in my house, if anything happens to my son, I will scratch his eyes out</t>
-  </si>
-  <si>
-    <t>I know its a time of concern for people, who see our rights being assailed, being trampled on and even being rolled back</t>
-  </si>
-  <si>
-    <t>"What people would still get together and protest for the greater good? Have we all gotten too scared and too safe?"</t>
+    <t>US LNG exports will increase from 1.4 Bcf/day at the end of 2016 to 9.5 Bcf/day by the end of 2019</t>
   </si>
   <si>
     <t xml:space="preserve">, the vaccine manufacturer admits on its package insert that their vaccination can cause autism as one of many adverse reactions.
@@ -4033,40 +4024,37 @@
  </t>
   </si>
   <si>
-    <t>that ISIS would be immediately surrendering its fight to establish a powerful caliphate after viewing an interview in which pop singer Katy Perry said,</t>
-  </si>
-  <si>
-    <t>why unions and big business joined together to finance an extensive radio-and-newspaper campaign to promote the gas and car tax increase</t>
-  </si>
-  <si>
     <t>, during this specific period Jupiter and Venus will come in close proximity of each other and will be separated by just 1 degree.</t>
   </si>
   <si>
-    <t>US LNG exports will increase from 1.4 Bcf/day at the end of 2016 to 9.5 Bcf/day by the end of 2019</t>
+    <t>that a Washington Post reporter who was called "Beth" had offered to pay the woman a large sum of money if she wold</t>
+  </si>
+  <si>
+    <t>the citizenship pledge supporting democratic values, are a part of an oppressive campaign by Australian authorities of forced assimilation of the Muslim community.</t>
+  </si>
+  <si>
+    <t>"What people would still get together and protest for the greater good? Have we all gotten too scared and too safe?"</t>
+  </si>
+  <si>
+    <t>a memo written by former FBI Director James Comey said the president urged him to end the federal investigation into former national security adviser Michael Flynn</t>
+  </si>
+  <si>
+    <t>, the squid were kept contained in Lake Erie, as the Detroit River is too narrow and shallow for the squid to swim upstream.</t>
+  </si>
+  <si>
+    <t>it is the central focus of my life and a matter of life and death to push his influence on the American people and our democracy</t>
+  </si>
+  <si>
+    <t>Texas produces more than a third of the countrys crude oil, and with untapped reserves in the Alpine High, Permian Basin and Eagle Ford</t>
+  </si>
+  <si>
+    <t>"I’m not retiring, I’m just looking for a change in life and I think I’ve found that in Casselberry,"</t>
+  </si>
+  <si>
+    <t>"Liberals who seek to use this rally to further their cause and attack President Trump need to go away and never come back."</t>
   </si>
   <si>
     <t>that he was outside just after 5:30am this morning when he heard an ahhh noise and saw two people fall from the top of the building</t>
-  </si>
-  <si>
-    <t>"Liberals who seek to use this rally to further their cause and attack President Trump need to go away and never come back."</t>
-  </si>
-  <si>
-    <t>, the squid were kept contained in Lake Erie, as the Detroit River is too narrow and shallow for the squid to swim upstream.</t>
-  </si>
-  <si>
-    <t>a memo written by former FBI Director James Comey said the president urged him to end the federal investigation into former national security adviser Michael Flynn</t>
-  </si>
-  <si>
-    <t>"I’m not retiring, I’m just looking for a change in life and I think I’ve found that in Casselberry,"</t>
-  </si>
-  <si>
-    <t>Texas produces more than a third of the countrys crude oil, and with untapped reserves in the Alpine High, Permian Basin and Eagle Ford</t>
-  </si>
-  <si>
-    <t>it is the central focus of my life and a matter of life and death to push his influence on the American people and our democracy</t>
-  </si>
-  <si>
-    <t>that "large areas at the base of Thwaites Glacier are actively melting in response to geothermal flux consistent with rift-associated magma migration and volcanism</t>
   </si>
   <si>
     <t xml:space="preserve">"We disagree with and are disappointed by the charges filed by the Los Angeles Dist.Atty.’s office.".
@@ -4077,6 +4065,9 @@
     <t>Col. Harland Sanders, whom he called a "tremendous Civil War hero," once saved an entire army at Valley Forge from certain starvation</t>
   </si>
   <si>
+    <t>Florida politicos who have known Wasserman Schultz for years are telling me she’s a nervous wreck, barely able to function since Imran Awan’s arrest</t>
+  </si>
+  <si>
     <t>that they assumed their visit to the house would be a quick one and that they would simply be asking the residents to keep the noise down</t>
   </si>
   <si>
@@ -4085,37 +4076,31 @@
  </t>
   </si>
   <si>
-    <t>Florida politicos who have known Wasserman Schultz for years are telling me she’s a nervous wreck, barely able to function since Imran Awan’s arrest</t>
+    <t>that "large areas at the base of Thwaites Glacier are actively melting in response to geothermal flux consistent with rift-associated magma migration and volcanism</t>
   </si>
   <si>
     <t>"If you like your health care plan, you can keep it. If you like your doctor, you can keep your doctor."</t>
   </si>
   <si>
+    <t>"A family friend who lives in Alabama just told my wife that a WAPO reporter named Beth offered her 1000$ to accuse Roy Moore."</t>
+  </si>
+  <si>
+    <t>"But we also had wet weather events that he did not experience. He went through significant periods of drought during his time as mayor. "</t>
+  </si>
+  <si>
+    <t>that Sen. Scott Brown should be able to fill the seat vacated by the death of Ted Kennedy immediately in order to help kill the Affordable Care Act</t>
+  </si>
+  <si>
     <t>that the seating of ones is highly privileged, as Senate rules state that the presentation of the credentials of Senators-elect shall always be in order</t>
   </si>
   <si>
-    <t>charter schools, which are publicly funded and operate independently, allow students in failing public schools to go to a school that is providing a better education</t>
-  </si>
-  <si>
     <t>Assange told him that Russia wasnt involved in the theft of emails from the Democratic National Committee that Wikileaks released, but didnt say who was</t>
   </si>
   <si>
     <t>"But if it had been enough to bring the system up to future needs, we wouldn't have dealt with issues we dealt with."</t>
   </si>
   <si>
-    <t>that Sen. Scott Brown should be able to fill the seat vacated by the death of Ted Kennedy immediately in order to help kill the Affordable Care Act</t>
-  </si>
-  <si>
-    <t>"So I thought, politically, I was pretty open minded and could speak my mind and then I realized I wasn’t supposed to."</t>
-  </si>
-  <si>
-    <t>"But we also had wet weather events that he did not experience. He went through significant periods of drought during his time as mayor. "</t>
-  </si>
-  <si>
-    <t>"A family friend who lives in Alabama just told my wife that a WAPO reporter named Beth offered her 1000$ to accuse Roy Moore."</t>
-  </si>
-  <si>
-    <t>that his Open Society Foundation has 28 days to cease and desist operations in Austria or face legal action for attempting to undermine the democracy of the nation</t>
+    <t>that the restrictions were in place due to the "instability" in the five countries and that the ban would be lifted once the security situation improves</t>
   </si>
   <si>
     <t xml:space="preserve">, Sasha Obama admits she was driving "more than 90 mph down Lake Hope Rd." where the speed limit is 35.
@@ -4123,160 +4108,172 @@
  </t>
   </si>
   <si>
-    <t>that the restrictions were in place due to the "instability" in the five countries and that the ban would be lifted once the security situation improves</t>
-  </si>
-  <si>
-    <t>that if they see Bergdahl, they should not attempt to approach him, since he may try to surrender and become their responsibility for the next five years</t>
-  </si>
-  <si>
-    <t>"We think that Rosenberg is a great place to find the hundreds of extras for our alien population and we’re very excited about filming here."</t>
-  </si>
-  <si>
-    <t>his Senate colleagues have told him a proposed statewide expansion of charter schools will not be received there with much enthusiasm, and it may be dead on arrival</t>
-  </si>
-  <si>
-    <t>that Carlson said that AR-15s are not needed to hunt or kill deer and suggested they only serve to enable terrorists to carry out their attacks with greater efficiency</t>
-  </si>
-  <si>
-    <t>Solyndra does not appear to be a legitimate institution, and is likely a shell company or slush fund used or owned by Obama to launder his dirty money</t>
+    <t>that his Open Society Foundation has 28 days to cease and desist operations in Austria or face legal action for attempting to undermine the democracy of the nation</t>
+  </si>
+  <si>
+    <t>"So I thought, politically, I was pretty open minded and could speak my mind and then I realized I wasn’t supposed to."</t>
+  </si>
+  <si>
+    <t>charter schools, which are publicly funded and operate independently, allow students in failing public schools to go to a school that is providing a better education</t>
+  </si>
+  <si>
+    <t>that the president was sending "thoughts and prayers" to the victims of an alleged terrorist attack in London and to the families of seven dead U.S. sailors</t>
+  </si>
+  <si>
+    <t>Brazile writes she was haunted by the murder of DNC Seth Rich, and feared for her own life, shutting the blinds so snipers could not see her</t>
   </si>
   <si>
     <t>that the young coworker who caused the accident was a new employee and had forgotten to check for the toe tag to make sure he had the right body</t>
-  </si>
-  <si>
-    <t>that an anonymous tip was left on their drug hotline, expressing concern about a horrible burning smell that was coming from the back of the Decatur WalMart facility</t>
-  </si>
-  <si>
-    <t>the little boy was screaming for about 38 minutes straight and the parents were asked by the flight attendant several times to quiet that annoying ass baby down.</t>
-  </si>
-  <si>
-    <t>Brazile writes she was haunted by the murder of DNC Seth Rich, and feared for her own life, shutting the blinds so snipers could not see her</t>
-  </si>
-  <si>
-    <t>that after the company voiced its support for a referendum backing gay marriage in Washington state, a boycott by traditional marriage supporters caused a drop in sales revenue</t>
   </si>
   <si>
     <t xml:space="preserve">the dogs being produced might look cute, but they are a fragile mess waiting to snap at the first real sign of stress in their lives.
  </t>
   </si>
   <si>
+    <t>that an anonymous tip was left on their drug hotline, expressing concern about a horrible burning smell that was coming from the back of the Decatur WalMart facility</t>
+  </si>
+  <si>
+    <t>Witnesses report they saw Devin Kelley walk into the Baptist Church in the small town 30 miles from San Antonio at 11:30am local time Sunday, according to KSAT-12</t>
+  </si>
+  <si>
     <t>she knew immediately when her son had reacted badly to a vaccine, after all who could possibly know what is best for a child than their own parent</t>
   </si>
   <si>
-    <t>Witnesses report they saw Devin Kelley walk into the Baptist Church in the small town 30 miles from San Antonio at 11:30am local time Sunday, according to KSAT-12</t>
-  </si>
-  <si>
-    <t>that the president was sending "thoughts and prayers" to the victims of an alleged terrorist attack in London and to the families of seven dead U.S. sailors</t>
+    <t>that after the company voiced its support for a referendum backing gay marriage in Washington state, a boycott by traditional marriage supporters caused a drop in sales revenue</t>
+  </si>
+  <si>
+    <t>the little boy was screaming for about 38 minutes straight and the parents were asked by the flight attendant several times to quiet that annoying ass baby down.</t>
+  </si>
+  <si>
+    <t>"We think that Rosenberg is a great place to find the hundreds of extras for our alien population and we’re very excited about filming here."</t>
+  </si>
+  <si>
+    <t>that if they see Bergdahl, they should not attempt to approach him, since he may try to surrender and become their responsibility for the next five years</t>
+  </si>
+  <si>
+    <t>that Carlson said that AR-15s are not needed to hunt or kill deer and suggested they only serve to enable terrorists to carry out their attacks with greater efficiency</t>
+  </si>
+  <si>
+    <t>Solyndra does not appear to be a legitimate institution, and is likely a shell company or slush fund used or owned by Obama to launder his dirty money</t>
+  </si>
+  <si>
+    <t>his Senate colleagues have told him a proposed statewide expansion of charter schools will not be received there with much enthusiasm, and it may be dead on arrival</t>
+  </si>
+  <si>
+    <t>California doesnt need more money for roads; it needs laws mandating that existing gas taxes and heavy-vehicles tax revenue is only spent on roads and infrastructure</t>
+  </si>
+  <si>
+    <t>Not only would it make Illinois open to those in the country illegally, it could create dangerous situations for the public and add more financial burdens to the state</t>
+  </si>
+  <si>
+    <t>"We believe that everyone, every team member, every guest, and every community, deserves to be treated equally, regardless of their religious beliefs."</t>
+  </si>
+  <si>
+    <t>that action must be taken immediately, after news broke that George Soros has donated $18 billion of his $24 billion dollar fortune to his Open Society Foundation</t>
   </si>
   <si>
     <t>"I did what was almost an impossible thing to do for a Republican-easily won the Electoral College! Now Tax Returns are brought up again?"</t>
   </si>
   <si>
-    <t>that action must be taken immediately, after news broke that George Soros has donated $18 billion of his $24 billion dollar fortune to his Open Society Foundation</t>
-  </si>
-  <si>
-    <t>California doesnt need more money for roads; it needs laws mandating that existing gas taxes and heavy-vehicles tax revenue is only spent on roads and infrastructure</t>
+    <t>that the president had confidence in all the members of the Justice Department, including Special Counsel Robert Mueller, who is reportedly investigating the president for obstruction of justice</t>
+  </si>
+  <si>
+    <t>Pope Francis is using his platform to push a dangerous far-left political ideology on vulnerable people around the world, people who trust him because of his position</t>
+  </si>
+  <si>
+    <t>"I have been president for only eight years, and in that time, I have done what no other presidents could do in all their time in total</t>
   </si>
   <si>
     <t>that he was an atheist and his interests included "Civil and social rights" and "Civil rights" as well as endorsements for local Texan Democratic political candidates</t>
   </si>
   <si>
-    <t>"We believe that everyone, every team member, every guest, and every community, deserves to be treated equally, regardless of their religious beliefs."</t>
-  </si>
-  <si>
-    <t>that the president had confidence in all the members of the Justice Department, including Special Counsel Robert Mueller, who is reportedly investigating the president for obstruction of justice</t>
-  </si>
-  <si>
-    <t>Not only would it make Illinois open to those in the country illegally, it could create dangerous situations for the public and add more financial burdens to the state</t>
-  </si>
-  <si>
-    <t>Pope Francis is using his platform to push a dangerous far-left political ideology on vulnerable people around the world, people who trust him because of his position</t>
-  </si>
-  <si>
-    <t>"I have been president for only eight years, and in that time, I have done what no other presidents could do in all their time in total</t>
-  </si>
-  <si>
     <t>During a time when the Republican Party’s presumptive nominee, Donald Trump, should be working to bring the party together and prepare for the primary battle against Hillary Clinton</t>
   </si>
   <si>
     <t>Provides that absent a judicial warrant or probable cause of criminal activity, a government official shall not make arrests in the following State-funded facilities or their adjacent grounds</t>
   </si>
   <si>
+    <t>that "Jean," who we can only assume to be the family friend, had spoken to the Etowah County District Attorney about the evidence that she had obtained</t>
+  </si>
+  <si>
     <t>"When I get back home from work – believe me – I thank God every single day that he had the mercy not to make me a scientist as well</t>
   </si>
   <si>
-    <t>that "Jean," who we can only assume to be the family friend, had spoken to the Etowah County District Attorney about the evidence that she had obtained</t>
-  </si>
-  <si>
-    <t>"We invested everything that was recommended to me by either my staff or FDEP under the consent order to get the system to the point where we didn't have spills</t>
-  </si>
-  <si>
-    <t>"Can’t wait for the next 9/11 so the 9th District circuit ruling judges will wish they didn’t roll over for enemies wishing death on America #MuslimBan."</t>
+    <t>That led a reader to contact the police about a city gardener, who later was arrested for allegedly selling thousands of dollars of city-owned gasoline on the black market</t>
+  </si>
+  <si>
+    <t>"is that the United States delegation probably also would not have had hotel rooms if Hillary Clinton had become president. It was already too late by Election Day."</t>
+  </si>
+  <si>
+    <t>"I grew up to be exactly who I was supposed to be and have the opinions I wanted to have and didn’t realize there were limitations to that,"</t>
+  </si>
+  <si>
+    <t>Most states and our federal government have kept information and statistics about illegal immigration, crimes committed by illegals and the costs borne by you the U.S. payer out of public view</t>
   </si>
   <si>
     <t>When she flew into London with her mother and daughters in tow, expecting an audience with Queen Elizabeth, she received a big slap-in-the-face instead</t>
   </si>
   <si>
-    <t>"I grew up to be exactly who I was supposed to be and have the opinions I wanted to have and didn’t realize there were limitations to that,"</t>
+    <t>That story is a total fabrication in order to do one thing: To prevent Donald Trump from exercising the legitimate authority he was given by the voters in the last election</t>
   </si>
   <si>
     <t xml:space="preserve">"He strongly spoke out against hate both from those who make racial animus their primary cause and anarchists who showed up hoping to watch the world burn.".
  </t>
   </si>
   <si>
-    <t>That story is a total fabrication in order to do one thing: To prevent Donald Trump from exercising the legitimate authority he was given by the voters in the last election</t>
+    <t>For too long we have been relying on an archaic idea that the President can only serve the United States if he or she has lived here all his or her life</t>
+  </si>
+  <si>
+    <t>"Can’t wait for the next 9/11 so the 9th District circuit ruling judges will wish they didn’t roll over for enemies wishing death on America #MuslimBan."</t>
+  </si>
+  <si>
+    <t>"We invested everything that was recommended to me by either my staff or FDEP under the consent order to get the system to the point where we didn't have spills</t>
   </si>
   <si>
     <t>Because, let’s face it, during that time, we’ve had the Supreme Court’s decision to legalize same-sex marriage, we’ve had countless terrorist attacks</t>
-  </si>
-  <si>
-    <t>That led a reader to contact the police about a city gardener, who later was arrested for allegedly selling thousands of dollars of city-owned gasoline on the black market</t>
-  </si>
-  <si>
-    <t>Most states and our federal government have kept information and statistics about illegal immigration, crimes committed by illegals and the costs borne by you the U.S. payer out of public view</t>
-  </si>
-  <si>
-    <t>"is that the United States delegation probably also would not have had hotel rooms if Hillary Clinton had become president. It was already too late by Election Day."</t>
-  </si>
-  <si>
-    <t>For too long we have been relying on an archaic idea that the President can only serve the United States if he or she has lived here all his or her life</t>
-  </si>
-  <si>
-    <t>that he was "glad" to be working in the Trump administration, but that he was, at the same time, "disappointed" as to where he was assigned</t>
   </si>
   <si>
     <t xml:space="preserve">that if an employer has a problem with you taking the pill, he can fire you – and he’ll have a seal of approval from the state of Missouri.
  </t>
   </si>
   <si>
+    <t>the un-American attitude displayed by the players, who repeatedly kneel during the National Anthem, burn flags in their locker rooms, and disrespect our country in every way imaginable</t>
+  </si>
+  <si>
     <t>Despite my previous belief that we must slay the infidel in the name of Allah until Islam rules the world, I just cant deny that Katys words have touched my heart</t>
   </si>
   <si>
     <t>that so here we are, and now the rumors are that they will jam this proposal through the House of Representatives and then bypass what has always been the normal legislative process</t>
   </si>
   <si>
+    <t>that he was "glad" to be working in the Trump administration, but that he was, at the same time, "disappointed" as to where he was assigned</t>
+  </si>
+  <si>
     <t>, the Star-Tribune, the hotline was set up as a way to target Trump supporters, who Muslims believe are the group of people most likely to harass them.</t>
   </si>
   <si>
-    <t>the un-American attitude displayed by the players, who repeatedly kneel during the National Anthem, burn flags in their locker rooms, and disrespect our country in every way imaginable</t>
-  </si>
-  <si>
     <t>that these people were being hired for the rally in Charlottesville this weekend to impersonate "white nationalists" and incite violence so it would look like they were at fault for the chaos</t>
   </si>
   <si>
     <t>that last week the encouraging number of jobs created in June (222,000) was accompanied by discouraging wage growth (year-over-year, 2.5 percent, barely ahead of inflation</t>
   </si>
   <si>
+    <t>"Intelligence agents who worked in the United States and returned to Russia in July" were among staff members from Russia’s Foreign Intelligence Service to receive awards at a Kremlin ceremony,</t>
+  </si>
+  <si>
+    <t>that at least 27 people have been killed in the shooting, according to reports by the CNN and the BBC, with the confirmed death toll expected to climb in the coming hours</t>
+  </si>
+  <si>
+    <t>Specifically, the chemical disturbs thyroid, testosterone, and estrogen regulation, which can create a host of issues including early puberty, poor sperm quality, infertility, obesity, and cancer</t>
+  </si>
+  <si>
     <t>This bill is simply a response to constituents that do have concerns of the rise of Islamic terrorism, and we in the State of Georgia do not want our laws used against us</t>
   </si>
   <si>
-    <t>that at least 27 people have been killed in the shooting, according to reports by the CNN and the BBC, with the confirmed death toll expected to climb in the coming hours</t>
-  </si>
-  <si>
-    <t>Specifically, the chemical disturbs thyroid, testosterone, and estrogen regulation, which can create a host of issues including early puberty, poor sperm quality, infertility, obesity, and cancer</t>
-  </si>
-  <si>
-    <t>"Intelligence agents who worked in the United States and returned to Russia in July" were among staff members from Russia’s Foreign Intelligence Service to receive awards at a Kremlin ceremony,</t>
+    <t>that – Russian sleeper agents, arrested in the United States this summer and deported to Russia as part of a prisoner exchange, received top government honors from President Dmitri A. Medvedev on Monday</t>
+  </si>
+  <si>
+    <t>When you come from a background like the one my father comes from, you have to know all there is about paying taxes and doing your part to make this country a better place</t>
   </si>
   <si>
     <t>We may have our differences, but we do well in times like these to remember that everyone who serves in our nations capital is here because, above all, they love our country</t>
@@ -4285,49 +4282,40 @@
     <t>that Snowden claims that Osama Bin Laden the infamous former leader of Al Qaeda, is in fact still alive and is in receipt of cash courtesy of the Central Intelligence Agency (CIA)</t>
   </si>
   <si>
-    <t>that – Russian sleeper agents, arrested in the United States this summer and deported to Russia as part of a prisoner exchange, received top government honors from President Dmitri A. Medvedev on Monday</t>
-  </si>
-  <si>
-    <t>When you come from a background like the one my father comes from, you have to know all there is about paying taxes and doing your part to make this country a better place</t>
+    <t>that the President hopes to see all the "athletes protesting our police and our flag or otherwise using their positions to spread hate" fired and replaced with people who "love and respect America</t>
+  </si>
+  <si>
+    <t>"I don’t want to live in a society that does these sort of things… I do not want to live in a world where everything I do and say is recorded."</t>
+  </si>
+  <si>
+    <t>While I can certainly appreciate President Trump’s reasons for placing me at my current position, at the same time I can’t help but feel as though my abilities are being severely misused here</t>
   </si>
   <si>
     <t>The moment she bullied her way into a hug and pushed the Queen toward a chair was the moment Queen Elizabeth decided there was to be no place for Michelle or Barack Obama at the wedding</t>
   </si>
   <si>
-    <t>"I don’t want to live in a society that does these sort of things… I do not want to live in a world where everything I do and say is recorded."</t>
-  </si>
-  <si>
-    <t>While I can certainly appreciate President Trump’s reasons for placing me at my current position, at the same time I can’t help but feel as though my abilities are being severely misused here</t>
-  </si>
-  <si>
-    <t>that the President hopes to see all the "athletes protesting our police and our flag or otherwise using their positions to spread hate" fired and replaced with people who "love and respect America</t>
+    <t>that upon inspecting McDonald’s factories and food restaurants throughout the country, food authorities found human meat in even 90% of the locations, while horse meat was found in 65% of the locations</t>
+  </si>
+  <si>
+    <t>that at one point, I even asked myself what was the use of trying to prove why assault rifles are bad to these people when they clearly dont possess the most fundamental knowledge of history</t>
+  </si>
+  <si>
+    <t>, the Trump administration learned that Obama, by proxy, owned a mansion and a 400-acre estate on the outskirts of the city of Si Sa Ket, approximately 500 km from Bangkok.</t>
+  </si>
+  <si>
+    <t>Those of you who are fans of conspiracy connoisseur and conservative commentator Alex Jones, host of Info Wars, will recognize that scenario as one of his dreamscapes, which is Pants on Fire groundless,</t>
   </si>
   <si>
     <t>"One of the things that the Bible has consistently denounced is the taking of the Lord’s name in vain. In fact, one of the Ten Commandments in the Old Testament states: "</t>
   </si>
   <si>
-    <t>that at one point, I even asked myself what was the use of trying to prove why assault rifles are bad to these people when they clearly dont possess the most fundamental knowledge of history</t>
-  </si>
-  <si>
-    <t>Those of you who are fans of conspiracy connoisseur and conservative commentator Alex Jones, host of Info Wars, will recognize that scenario as one of his dreamscapes, which is Pants on Fire groundless,</t>
+    <t>they were looking for a suspect described as a white or Hispanic male, approximately 6 feet (1.8 meters) to 6-feet-3 inches tall, with short hair and a medium to stocky build</t>
   </si>
   <si>
     <t>As a result, the president of the country nowadays has very different legal and executive abilities than those of many of his predecessors, especially some of the first ones like George Washington or Thomas Jefferson</t>
   </si>
   <si>
-    <t>that upon inspecting McDonald’s factories and food restaurants throughout the country, food authorities found human meat in even 90% of the locations, while horse meat was found in 65% of the locations</t>
-  </si>
-  <si>
-    <t>they were looking for a suspect described as a white or Hispanic male, approximately 6 feet (1.8 meters) to 6-feet-3 inches tall, with short hair and a medium to stocky build</t>
-  </si>
-  <si>
-    <t>, the Trump administration learned that Obama, by proxy, owned a mansion and a 400-acre estate on the outskirts of the city of Si Sa Ket, approximately 500 km from Bangkok.</t>
-  </si>
-  <si>
     <t>Whether or not he was specifically targeted, or whether this was because of the uniform he was wearing or the place he pulled up to in the morning, we just don’t know that right now</t>
-  </si>
-  <si>
-    <t>that Bergdahl took only a half-full Camelbak and a long hunting knife with him as he calmly made his way to the exit during his own lawyers remarks to the judge regarding a possible plea deal</t>
   </si>
   <si>
     <t>how Col. Sanders took five loaves of Evangeline Maid bread and two chickens, added his secret blend of 11 herbs and spices, and turned these humble ingredients into delicious meals that lasted an entire winter</t>
@@ -4338,27 +4326,30 @@
  </t>
   </si>
   <si>
+    <t>that Bergdahl took only a half-full Camelbak and a long hunting knife with him as he calmly made his way to the exit during his own lawyers remarks to the judge regarding a possible plea deal</t>
+  </si>
+  <si>
+    <t>Earlier this month, Illinois Review reported that according to the communications director for the Federation for American Immigration Reform, Signing SB 31 into law would make Illinois the state most open to illegal aliens besides California:</t>
+  </si>
+  <si>
+    <t>"What Target has done is very hateful. It’s hatred towards families. It’s hateful towards mothers. It’s hateful towards children…Are you gonna let the devil rape your children?"</t>
+  </si>
+  <si>
+    <t>, intelligence was gathered from the men’s computers that they were planning to ambush the president during one of his trips to Florida, giving them 4 to 5 possible attack attempts per month to work with.</t>
+  </si>
+  <si>
     <t>, is that Kelly sees a schedule filled with visits from celebrities and novelists to talk about their sitcoms and books, traveling assignments to dog shows and fashion week and even the addition of a musical guest.</t>
   </si>
   <si>
-    <t>"What Target has done is very hateful. It’s hatred towards families. It’s hateful towards mothers. It’s hateful towards children…Are you gonna let the devil rape your children?"</t>
+    <t>"Though modern-day cannibalism is extremely rare, it does unfortunately exist. That said -treating diabetes and or depression has to be the most bizarre reason for practicing cannibalism that I’ve ever heard."</t>
+  </si>
+  <si>
+    <t>"paid passengers have to give up their seats. This is not business. This is reckless, foolhardy imposition of your own personal convenience – what happened to ‘the customer is always right’?"</t>
   </si>
   <si>
     <t>"If you look at what he (the Pope) says it’s clear that he is not a man of God. At least not the Christian God. Not the God of the Bible,"</t>
   </si>
   <si>
-    <t>"paid passengers have to give up their seats. This is not business. This is reckless, foolhardy imposition of your own personal convenience – what happened to ‘the customer is always right’?"</t>
-  </si>
-  <si>
-    <t>"Though modern-day cannibalism is extremely rare, it does unfortunately exist. That said -treating diabetes and or depression has to be the most bizarre reason for practicing cannibalism that I’ve ever heard."</t>
-  </si>
-  <si>
-    <t>Earlier this month, Illinois Review reported that according to the communications director for the Federation for American Immigration Reform, Signing SB 31 into law would make Illinois the state most open to illegal aliens besides California:</t>
-  </si>
-  <si>
-    <t>, intelligence was gathered from the men’s computers that they were planning to ambush the president during one of his trips to Florida, giving them 4 to 5 possible attack attempts per month to work with.</t>
-  </si>
-  <si>
     <t>, on the date of the general election in November 2016, there were 6,540 same-day registrants who registered to vote in New Hampshire using an out-of-state drivers license to prove their identity.</t>
   </si>
   <si>
@@ -4371,46 +4362,37 @@
     <t>"When this film came along, it came along at a time that I was having that internal discussion with myself about who in our country would step out of their comfort zone to help others for the greater good."</t>
   </si>
   <si>
+    <t>"The people who do all the real work in Hollywood are the people who build the sets, who make the costumes, who create the props, and in some cases, do the stunts and the special effects,"Mike explained. "</t>
+  </si>
+  <si>
+    <t>At the risk of sounding discriminatory, which is not at all my goal here, but at the risk of sounding like that, there is no way women should be allowed control over whether or not they are going to have abortions</t>
+  </si>
+  <si>
     <t>"I don’t know about the rest of the people living in my state, but I for one am not comfortable with that one bit. And so I reacted and did what was necessary to prevent that from happening."</t>
   </si>
   <si>
-    <t>"The people who do all the real work in Hollywood are the people who build the sets, who make the costumes, who create the props, and in some cases, do the stunts and the special effects,"Mike explained. "</t>
-  </si>
-  <si>
-    <t>At the risk of sounding discriminatory, which is not at all my goal here, but at the risk of sounding like that, there is no way women should be allowed control over whether or not they are going to have abortions</t>
-  </si>
-  <si>
     <t>, al-Baghdadi further confirmed that a recent advertisement in which Kendall Jenner offered a group of riot police a Pepsi was also influential in his decision to immediately cease their murderous reign of terror and lead ISIS down a path of peace.</t>
   </si>
   <si>
     <t>he is puzzled by neither the cause (persistent slow growth, limping at about 2 percent) nor the cause of this cause insufficient money in middle-class paychecks to power an economy where 70 percent of the fuel comes from consumer spending</t>
   </si>
   <si>
+    <t>that he was the owner of the grey Dodge Challenger, a vehicle that was filmed by the witnesses speeding up and plowing into the crowd of anti-fascist protesters who flocked to downtown Charlottesville on Saturday to oppose a large far-right rally there</t>
+  </si>
+  <si>
+    <t>"A disturbed woman with about ten kids came in the store yelling and screaming that Target was raping children…it was hilarious at first but after a while we were getting scared that they might be a religious cult and would start shooting."</t>
+  </si>
+  <si>
     <t>Californias roads are a disaster because for years politicians have kicked the can down the road, diverted funds to projects like bike paths and trains, and allowed a bloated government pension system to crowd out funds that could have been used for infrastructure and repair</t>
   </si>
   <si>
-    <t>"A disturbed woman with about ten kids came in the store yelling and screaming that Target was raping children…it was hilarious at first but after a while we were getting scared that they might be a religious cult and would start shooting."</t>
-  </si>
-  <si>
-    <t>that he was the owner of the grey Dodge Challenger, a vehicle that was filmed by the witnesses speeding up and plowing into the crowd of anti-fascist protesters who flocked to downtown Charlottesville on Saturday to oppose a large far-right rally there</t>
+    <t>Though both programs are struggling this year, dealing with injuries and academic disciplinary action, there is no need in embarrassing the UF Athletic program further by subjecting our already mediocre team to a game that would further humiliate the morale and enthusiasm of our student body</t>
+  </si>
+  <si>
+    <t>"The Marine Corps is a competitive place, we have no room or respect for weak bitches that can’t get in there fast, kill everyone, and get back to the ships in time to get to make the port calls in Asia."</t>
   </si>
   <si>
     <t>"This attitude reflects Kriseman's leadership style spend two years blaming the weather, city employees and past administrations, never take responsibility for closing Albert Whitted in 2015 and dumping 200 million gallons of sewage and now crying foul when he's held accountable."</t>
-  </si>
-  <si>
-    <t>"And let’s get one thing straight – I’m not just saying this because I happen to be white. No, even if I were Asian or Hindu or Martian, whatever, I’d be saying the same thing all over again,"</t>
-  </si>
-  <si>
-    <t>Hillary should be in jail for her unlawful deeds and President Trump should absolutely, absolutely make sure this happens to send the very strong message that no-one, and I mean no-one, is above the law in the United States of America</t>
-  </si>
-  <si>
-    <t>"The Marine Corps is a competitive place, we have no room or respect for weak bitches that can’t get in there fast, kill everyone, and get back to the ships in time to get to make the port calls in Asia."</t>
-  </si>
-  <si>
-    <t>"Without that inner-city ghetto vote, Doug Jones doesn’t have a chance. It doesn’t make much sense why someone from the city’s vote is so much more important to Democrats, who swear they aren’t at all racist."</t>
-  </si>
-  <si>
-    <t>Though both programs are struggling this year, dealing with injuries and academic disciplinary action, there is no need in embarrassing the UF Athletic program further by subjecting our already mediocre team to a game that would further humiliate the morale and enthusiasm of our student body</t>
   </si>
   <si>
     <t>".
@@ -4418,6 +4400,15 @@
  The pope has become increasingly brazen this year in pushing the globalist agenda and far-left talking points upon the masses. Earlier this year he called for a global central bank and financial authority, and more recently he said "</t>
   </si>
   <si>
+    <t>"Without that inner-city ghetto vote, Doug Jones doesn’t have a chance. It doesn’t make much sense why someone from the city’s vote is so much more important to Democrats, who swear they aren’t at all racist."</t>
+  </si>
+  <si>
+    <t>"And let’s get one thing straight – I’m not just saying this because I happen to be white. No, even if I were Asian or Hindu or Martian, whatever, I’d be saying the same thing all over again,"</t>
+  </si>
+  <si>
+    <t>Hillary should be in jail for her unlawful deeds and President Trump should absolutely, absolutely make sure this happens to send the very strong message that no-one, and I mean no-one, is above the law in the United States of America</t>
+  </si>
+  <si>
     <t xml:space="preserve">"I do not agree with anything these people are trying to do.I mostly spend my days watching them run around in circles, trying to change the world or something.In reality, they’re just wasting their time.".
  .
  </t>
@@ -4426,21 +4417,21 @@
     <t>"I find human flesh to be the only thing that cures my type-2 diabetes and chronic depression. If expensive pharmaceutical drugs helped, I would figure out a way to obtain them, but they don’t, so I stick to what works for me"</t>
   </si>
   <si>
-    <t>"However, since that time, Mr. Simpson, through his attorney, has agreed to provide a transcribed interview and requested that the subpoena compelling his attendance at Wednesday’s hearing be waived. We’ve reached an agreement on this request and have withdrawn the subpoena."</t>
-  </si>
-  <si>
-    <t>that Col. Sanders was born 25 years after the end of the war, that The Donald seemed to be confusing the food incident with a Biblical story about Jesus feeding the multitudes, and that Valley Forge was neither an encampment nor a battle site during the Civil War</t>
-  </si>
-  <si>
     <t xml:space="preserve">, there is one report which contains a shocking audio confession by a man claiming McDonald’s uses human meat as a filler in their 100% beef hamburgers along with proved facts that McDonald’s has been accused of using worm meat fillers was published recently.
  .
  </t>
   </si>
   <si>
+    <t>"However, since that time, Mr. Simpson, through his attorney, has agreed to provide a transcribed interview and requested that the subpoena compelling his attendance at Wednesday’s hearing be waived. We’ve reached an agreement on this request and have withdrawn the subpoena."</t>
+  </si>
+  <si>
+    <t>that Col. Sanders was born 25 years after the end of the war, that The Donald seemed to be confusing the food incident with a Biblical story about Jesus feeding the multitudes, and that Valley Forge was neither an encampment nor a battle site during the Civil War</t>
+  </si>
+  <si>
+    <t>By contacting then-Treasury Secretary Henry Paulson to request a meeting, allegedly for a group of minority-owned banks, but then arranging for only one bank – OneUnited, in which she had a financial interest – to attend, Rep. Waters violated House conflict of interest rules</t>
+  </si>
+  <si>
     <t>"I never realized that there were limitations where I was looked at as less than until I was actually pretty deep in this business and I had a pretty unsettling moment, and I went ‘Oh my god, I’m being treated this way because I’m female,</t>
-  </si>
-  <si>
-    <t>By contacting then-Treasury Secretary Henry Paulson to request a meeting, allegedly for a group of minority-owned banks, but then arranging for only one bank – OneUnited, in which she had a financial interest – to attend, Rep. Waters violated House conflict of interest rules</t>
   </si>
   <si>
     <t>"The Marines have dedicated their lives to the service of this country and have served at the pleasure of the President for many, many years and it's about time they be recognized as a separate department. They are the President’s own and shall remain as such."</t>
@@ -4478,12 +4469,12 @@
     <t>"Crowds on Demand, a Los Angeles-based Public Relations firm specializing in innovative events, is looking for enthusiastic actors and photographers in the Charlotte, NC area to participate in our events. Our events include everything from rallies to protests to corporate PR stunts to celebrity scenes. The biggest qualification is enthusiasm, a "</t>
   </si>
   <si>
+    <t>"Megyn Kelly was a superstar until she took on Trump. Now she’s a laughing stock. She could have worked a year or two and made herself $25 million. Instead she’ll spend her days looking for someone else who needs a washed up hasbeen from Fox News who knows nothing but how to piss people off."</t>
+  </si>
+  <si>
     <t xml:space="preserve">"He is still receiving more than $100,000 a month, which are being transferred through some front businesses and organizations, directly to his Nassau bank account.I am not certain where he is now, but in 2013, he was living quietly in his villa with five of his wives and many children.".
  .
  </t>
-  </si>
-  <si>
-    <t>"Megyn Kelly was a superstar until she took on Trump. Now she’s a laughing stock. She could have worked a year or two and made herself $25 million. Instead she’ll spend her days looking for someone else who needs a washed up hasbeen from Fox News who knows nothing but how to piss people off."</t>
   </si>
   <si>
     <t>"the congressional group who vehemently opposes Donald Trump, refuses to work with him even though he’s extended his hand across the aisle, even though he’s a man that has set up apprentice programs in Maxine.
@@ -6310,7 +6301,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C611"/>
+  <dimension ref="A1:C610"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6725,7 +6716,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B38">
         <v>7</v>
@@ -6736,7 +6727,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B39">
         <v>7</v>
@@ -6747,7 +6738,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B40">
         <v>7</v>
@@ -6758,7 +6749,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B41">
         <v>7</v>
@@ -6802,7 +6793,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="B45">
         <v>7</v>
@@ -6813,7 +6804,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -6824,7 +6815,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B47">
         <v>7</v>
@@ -6835,7 +6826,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -6846,7 +6837,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B49">
         <v>7</v>
@@ -6857,7 +6848,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -6868,7 +6859,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B51">
         <v>7</v>
@@ -6879,7 +6870,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B52">
         <v>7</v>
@@ -6890,7 +6881,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B53">
         <v>7</v>
@@ -6901,7 +6892,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B54">
         <v>7</v>
@@ -6912,7 +6903,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B55">
         <v>7</v>
@@ -6923,7 +6914,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B56">
         <v>7</v>
@@ -6934,7 +6925,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B57">
         <v>7</v>
@@ -6945,7 +6936,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>915</v>
+        <v>933</v>
       </c>
       <c r="B58">
         <v>7</v>
@@ -7473,7 +7464,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B106">
         <v>9</v>
@@ -7484,7 +7475,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B107">
         <v>9</v>
@@ -7495,7 +7486,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B108">
         <v>9</v>
@@ -7506,7 +7497,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B109">
         <v>9</v>
@@ -7517,7 +7508,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B110">
         <v>9</v>
@@ -7528,7 +7519,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B111">
         <v>9</v>
@@ -7539,7 +7530,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B112">
         <v>9</v>
@@ -7550,7 +7541,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B113">
         <v>9</v>
@@ -7561,7 +7552,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B114">
         <v>9</v>
@@ -7883,7 +7874,7 @@
         <v>1016</v>
       </c>
       <c r="B143">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C143">
         <v>2017</v>
@@ -7957,7 +7948,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B150">
         <v>11</v>
@@ -7968,7 +7959,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B151">
         <v>11</v>
@@ -7979,7 +7970,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B152">
         <v>11</v>
@@ -7990,7 +7981,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="B153">
         <v>11</v>
@@ -8001,7 +7992,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B154">
         <v>11</v>
@@ -8012,7 +8003,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B155">
         <v>11</v>
@@ -8023,7 +8014,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B156">
         <v>11</v>
@@ -8045,7 +8036,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="B158">
         <v>11</v>
@@ -8067,7 +8058,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="B160">
         <v>11</v>
@@ -8078,7 +8069,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B161">
         <v>11</v>
@@ -8089,7 +8080,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B162">
         <v>11</v>
@@ -8100,7 +8091,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
       <c r="B163">
         <v>11</v>
@@ -8136,7 +8127,7 @@
         <v>1035</v>
       </c>
       <c r="B166">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C166">
         <v>2017</v>
@@ -8331,7 +8322,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>1036</v>
+        <v>1053</v>
       </c>
       <c r="B184">
         <v>12</v>
@@ -8342,7 +8333,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B185">
         <v>12</v>
@@ -8353,7 +8344,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B186">
         <v>12</v>
@@ -8364,7 +8355,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B187">
         <v>12</v>
@@ -8375,7 +8366,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B188">
         <v>12</v>
@@ -8386,7 +8377,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B189">
         <v>12</v>
@@ -8397,7 +8388,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>1036</v>
+        <v>1059</v>
       </c>
       <c r="B190">
         <v>12</v>
@@ -8408,7 +8399,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B191">
         <v>12</v>
@@ -8419,7 +8410,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="B192">
         <v>12</v>
@@ -8430,7 +8421,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>1060</v>
+        <v>1051</v>
       </c>
       <c r="B193">
         <v>12</v>
@@ -8455,7 +8446,7 @@
         <v>1062</v>
       </c>
       <c r="B195">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C195">
         <v>2017</v>
@@ -8697,7 +8688,7 @@
         <v>1084</v>
       </c>
       <c r="B217">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C217">
         <v>2017</v>
@@ -8972,7 +8963,7 @@
         <v>1109</v>
       </c>
       <c r="B242">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C242">
         <v>2017</v>
@@ -9225,7 +9216,7 @@
         <v>1132</v>
       </c>
       <c r="B265">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C265">
         <v>2017</v>
@@ -9577,7 +9568,7 @@
         <v>1164</v>
       </c>
       <c r="B297">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C297">
         <v>2017</v>
@@ -9662,7 +9653,7 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="B305">
         <v>17</v>
@@ -9673,7 +9664,7 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B306">
         <v>17</v>
@@ -9684,7 +9675,7 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B307">
         <v>17</v>
@@ -9695,7 +9686,7 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="B308">
         <v>17</v>
@@ -9739,7 +9730,7 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
       <c r="B312">
         <v>17</v>
@@ -9750,7 +9741,7 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B313">
         <v>17</v>
@@ -9761,7 +9752,7 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B314">
         <v>17</v>
@@ -9772,7 +9763,7 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B315">
         <v>17</v>
@@ -9783,7 +9774,7 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B316">
         <v>17</v>
@@ -9794,7 +9785,7 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B317">
         <v>17</v>
@@ -9805,7 +9796,7 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B318">
         <v>17</v>
@@ -9816,7 +9807,7 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B319">
         <v>17</v>
@@ -9827,7 +9818,7 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B320">
         <v>17</v>
@@ -9838,7 +9829,7 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B321">
         <v>17</v>
@@ -9849,7 +9840,7 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B322">
         <v>17</v>
@@ -9860,10 +9851,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>1169</v>
+        <v>1188</v>
       </c>
       <c r="B323">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C323">
         <v>2017</v>
@@ -10039,7 +10030,7 @@
         <v>1204</v>
       </c>
       <c r="B339">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C339">
         <v>2017</v>
@@ -10146,7 +10137,7 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>1206</v>
+        <v>1214</v>
       </c>
       <c r="B349">
         <v>19</v>
@@ -10157,7 +10148,7 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B350">
         <v>19</v>
@@ -10168,7 +10159,7 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>1215</v>
+        <v>1204</v>
       </c>
       <c r="B351">
         <v>19</v>
@@ -10223,7 +10214,7 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>1220</v>
+        <v>1204</v>
       </c>
       <c r="B356">
         <v>19</v>
@@ -10234,7 +10225,7 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B357">
         <v>19</v>
@@ -10245,7 +10236,7 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B358">
         <v>19</v>
@@ -10256,7 +10247,7 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B359">
         <v>19</v>
@@ -10267,7 +10258,7 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B360">
         <v>19</v>
@@ -10278,7 +10269,7 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>1206</v>
+        <v>1224</v>
       </c>
       <c r="B361">
         <v>19</v>
@@ -10303,7 +10294,7 @@
         <v>1226</v>
       </c>
       <c r="B363">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C363">
         <v>2017</v>
@@ -10380,7 +10371,7 @@
         <v>1233</v>
       </c>
       <c r="B370">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C370">
         <v>2017</v>
@@ -10432,7 +10423,7 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>1234</v>
+        <v>1238</v>
       </c>
       <c r="B375">
         <v>21</v>
@@ -10443,7 +10434,7 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B376">
         <v>21</v>
@@ -10454,7 +10445,7 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="B377">
         <v>21</v>
@@ -10509,7 +10500,7 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>1244</v>
+        <v>1235</v>
       </c>
       <c r="B382">
         <v>21</v>
@@ -10520,7 +10511,7 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>1234</v>
+        <v>1244</v>
       </c>
       <c r="B383">
         <v>21</v>
@@ -10567,7 +10558,7 @@
         <v>1248</v>
       </c>
       <c r="B387">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C387">
         <v>2017</v>
@@ -10696,7 +10687,7 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="B399">
         <v>22</v>
@@ -10732,7 +10723,7 @@
         <v>1262</v>
       </c>
       <c r="B402">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C402">
         <v>2017</v>
@@ -10941,7 +10932,7 @@
         <v>1281</v>
       </c>
       <c r="B421">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C421">
         <v>2017</v>
@@ -10993,7 +10984,7 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B426">
         <v>24</v>
@@ -11004,7 +10995,7 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B427">
         <v>24</v>
@@ -11015,7 +11006,7 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B428">
         <v>24</v>
@@ -11026,7 +11017,7 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B429">
         <v>24</v>
@@ -11037,7 +11028,7 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B430">
         <v>24</v>
@@ -11048,7 +11039,7 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B431">
         <v>24</v>
@@ -11059,7 +11050,7 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="B432">
         <v>24</v>
@@ -11117,7 +11108,7 @@
         <v>1296</v>
       </c>
       <c r="B437">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C437">
         <v>2017</v>
@@ -11202,7 +11193,7 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="B445">
         <v>25</v>
@@ -11279,7 +11270,7 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452" t="s">
-        <v>1299</v>
+        <v>1310</v>
       </c>
       <c r="B452">
         <v>25</v>
@@ -11290,7 +11281,7 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B453">
         <v>25</v>
@@ -11301,7 +11292,7 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B454">
         <v>25</v>
@@ -11312,7 +11303,7 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B455">
         <v>25</v>
@@ -11323,7 +11314,7 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="B456">
         <v>25</v>
@@ -11337,7 +11328,7 @@
         <v>1314</v>
       </c>
       <c r="B457">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C457">
         <v>2017</v>
@@ -11356,7 +11347,7 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B459">
         <v>26</v>
@@ -11367,7 +11358,7 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B460">
         <v>26</v>
@@ -11411,7 +11402,7 @@
     </row>
     <row r="464" spans="1:3">
       <c r="A464" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="B464">
         <v>26</v>
@@ -11422,7 +11413,7 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="B465">
         <v>26</v>
@@ -11436,7 +11427,7 @@
         <v>1321</v>
       </c>
       <c r="B466">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C466">
         <v>2017</v>
@@ -11513,7 +11504,7 @@
         <v>1328</v>
       </c>
       <c r="B473">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C473">
         <v>2017</v>
@@ -11634,7 +11625,7 @@
         <v>1339</v>
       </c>
       <c r="B484">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C484">
         <v>2017</v>
@@ -11788,7 +11779,7 @@
         <v>1353</v>
       </c>
       <c r="B498">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C498">
         <v>2017</v>
@@ -11887,7 +11878,7 @@
         <v>1362</v>
       </c>
       <c r="B507">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C507">
         <v>2017</v>
@@ -11931,7 +11922,7 @@
         <v>1366</v>
       </c>
       <c r="B511">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C511">
         <v>2017</v>
@@ -12052,7 +12043,7 @@
         <v>1377</v>
       </c>
       <c r="B522">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C522">
         <v>2017</v>
@@ -12118,7 +12109,7 @@
         <v>1383</v>
       </c>
       <c r="B528">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C528">
         <v>2017</v>
@@ -12184,7 +12175,7 @@
         <v>1389</v>
       </c>
       <c r="B534">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C534">
         <v>2017</v>
@@ -12228,7 +12219,7 @@
         <v>1393</v>
       </c>
       <c r="B538">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C538">
         <v>2017</v>
@@ -12272,7 +12263,7 @@
         <v>1397</v>
       </c>
       <c r="B542">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C542">
         <v>2017</v>
@@ -12349,7 +12340,7 @@
         <v>1404</v>
       </c>
       <c r="B549">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C549">
         <v>2017</v>
@@ -12379,7 +12370,7 @@
     </row>
     <row r="552" spans="1:3">
       <c r="A552" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B552">
         <v>38</v>
@@ -12404,7 +12395,7 @@
         <v>1408</v>
       </c>
       <c r="B554">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C554">
         <v>2017</v>
@@ -12481,7 +12472,7 @@
         <v>1415</v>
       </c>
       <c r="B561">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C561">
         <v>2017</v>
@@ -12492,7 +12483,7 @@
         <v>1416</v>
       </c>
       <c r="B562">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C562">
         <v>2017</v>
@@ -12503,7 +12494,7 @@
         <v>1417</v>
       </c>
       <c r="B563">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C563">
         <v>2017</v>
@@ -12514,7 +12505,7 @@
         <v>1418</v>
       </c>
       <c r="B564">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C564">
         <v>2017</v>
@@ -12522,7 +12513,7 @@
     </row>
     <row r="565" spans="1:3">
       <c r="A565" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B565">
         <v>43</v>
@@ -12536,7 +12527,7 @@
         <v>1419</v>
       </c>
       <c r="B566">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C566">
         <v>2017</v>
@@ -12569,7 +12560,7 @@
         <v>1422</v>
       </c>
       <c r="B569">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C569">
         <v>2017</v>
@@ -12591,7 +12582,7 @@
         <v>1424</v>
       </c>
       <c r="B571">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C571">
         <v>2017</v>
@@ -12624,7 +12615,7 @@
         <v>1427</v>
       </c>
       <c r="B574">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C574">
         <v>2017</v>
@@ -12701,7 +12692,7 @@
         <v>1434</v>
       </c>
       <c r="B581">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C581">
         <v>2017</v>
@@ -12723,7 +12714,7 @@
         <v>1436</v>
       </c>
       <c r="B583">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C583">
         <v>2017</v>
@@ -12756,7 +12747,7 @@
         <v>1439</v>
       </c>
       <c r="B586">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C586">
         <v>2017</v>
@@ -12778,7 +12769,7 @@
         <v>1441</v>
       </c>
       <c r="B588">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C588">
         <v>2017</v>
@@ -12789,7 +12780,7 @@
         <v>1442</v>
       </c>
       <c r="B589">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C589">
         <v>2017</v>
@@ -12800,7 +12791,7 @@
         <v>1443</v>
       </c>
       <c r="B590">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C590">
         <v>2017</v>
@@ -12822,7 +12813,7 @@
         <v>1445</v>
       </c>
       <c r="B592">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C592">
         <v>2017</v>
@@ -12833,7 +12824,7 @@
         <v>1446</v>
       </c>
       <c r="B593">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C593">
         <v>2017</v>
@@ -12855,7 +12846,7 @@
         <v>1448</v>
       </c>
       <c r="B595">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C595">
         <v>2017</v>
@@ -12866,7 +12857,7 @@
         <v>1449</v>
       </c>
       <c r="B596">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C596">
         <v>2017</v>
@@ -12877,7 +12868,7 @@
         <v>1450</v>
       </c>
       <c r="B597">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C597">
         <v>2017</v>
@@ -12899,7 +12890,7 @@
         <v>1452</v>
       </c>
       <c r="B599">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C599">
         <v>2017</v>
@@ -12932,7 +12923,7 @@
         <v>1455</v>
       </c>
       <c r="B602">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C602">
         <v>2017</v>
@@ -12943,7 +12934,7 @@
         <v>1456</v>
       </c>
       <c r="B603">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C603">
         <v>2017</v>
@@ -12954,7 +12945,7 @@
         <v>1457</v>
       </c>
       <c r="B604">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C604">
         <v>2017</v>
@@ -12965,7 +12956,7 @@
         <v>1458</v>
       </c>
       <c r="B605">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C605">
         <v>2017</v>
@@ -12976,7 +12967,7 @@
         <v>1459</v>
       </c>
       <c r="B606">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C606">
         <v>2017</v>
@@ -12987,7 +12978,7 @@
         <v>1460</v>
       </c>
       <c r="B607">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C607">
         <v>2017</v>
@@ -12998,7 +12989,7 @@
         <v>1461</v>
       </c>
       <c r="B608">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C608">
         <v>2017</v>
@@ -13009,7 +13000,7 @@
         <v>1462</v>
       </c>
       <c r="B609">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C609">
         <v>2017</v>
@@ -13020,20 +13011,9 @@
         <v>1463</v>
       </c>
       <c r="B610">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="C610">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3">
-      <c r="A611" t="s">
-        <v>1464</v>
-      </c>
-      <c r="B611">
-        <v>122</v>
-      </c>
-      <c r="C611">
         <v>2017</v>
       </c>
     </row>
@@ -13063,7 +13043,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -13074,7 +13054,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -13085,7 +13065,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -13096,7 +13076,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -13107,7 +13087,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -13118,7 +13098,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -13129,7 +13109,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -13140,7 +13120,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -13151,7 +13131,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -13162,7 +13142,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -13173,7 +13153,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -13184,7 +13164,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -13195,7 +13175,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -13206,7 +13186,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -13217,7 +13197,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -13228,7 +13208,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -13239,7 +13219,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -13250,7 +13230,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -13261,7 +13241,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -13272,7 +13252,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -13283,7 +13263,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -13294,7 +13274,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -13305,7 +13285,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -13316,7 +13296,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -13327,7 +13307,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -13338,7 +13318,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -13349,7 +13329,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -13360,7 +13340,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -13371,7 +13351,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -13382,7 +13362,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B31">
         <v>6</v>
@@ -13393,7 +13373,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B32">
         <v>7</v>
@@ -13404,7 +13384,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B33">
         <v>7</v>
@@ -13415,7 +13395,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B34">
         <v>7</v>
@@ -13426,7 +13406,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B35">
         <v>7</v>
@@ -13437,7 +13417,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B36">
         <v>7</v>
@@ -13448,7 +13428,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B37">
         <v>7</v>
@@ -13459,7 +13439,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B38">
         <v>7</v>
@@ -13470,7 +13450,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B39">
         <v>7</v>
@@ -13481,7 +13461,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B40">
         <v>7</v>
@@ -13492,7 +13472,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B41">
         <v>7</v>
@@ -13503,7 +13483,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B42">
         <v>7</v>
@@ -13514,7 +13494,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -13525,7 +13505,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -13536,7 +13516,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -13547,7 +13527,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -13558,7 +13538,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -13569,7 +13549,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -13580,7 +13560,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B49">
         <v>8</v>
@@ -13591,7 +13571,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B50">
         <v>8</v>
@@ -13602,7 +13582,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B51">
         <v>8</v>
@@ -13613,7 +13593,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B52">
         <v>8</v>
@@ -13624,7 +13604,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B53">
         <v>8</v>
@@ -13635,7 +13615,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B54">
         <v>8</v>
@@ -13646,7 +13626,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B55">
         <v>8</v>
@@ -13657,7 +13637,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B56">
         <v>8</v>
@@ -13668,7 +13648,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B57">
         <v>8</v>
@@ -13679,7 +13659,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B58">
         <v>8</v>
@@ -13690,7 +13670,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B59">
         <v>8</v>
@@ -13701,7 +13681,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B60">
         <v>9</v>
@@ -13712,7 +13692,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B61">
         <v>9</v>
@@ -13723,7 +13703,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B62">
         <v>9</v>
@@ -13734,7 +13714,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B63">
         <v>9</v>
@@ -13745,7 +13725,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B64">
         <v>9</v>
@@ -13756,7 +13736,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B65">
         <v>9</v>
@@ -13767,7 +13747,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B66">
         <v>9</v>
@@ -13778,7 +13758,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B67">
         <v>9</v>
@@ -13789,7 +13769,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B68">
         <v>9</v>
@@ -13800,7 +13780,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B69">
         <v>9</v>
@@ -13811,7 +13791,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B70">
         <v>9</v>
@@ -13822,7 +13802,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B71">
         <v>9</v>
@@ -13833,7 +13813,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B72">
         <v>9</v>
@@ -13844,7 +13824,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B73">
         <v>9</v>
@@ -13855,7 +13835,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B74">
         <v>9</v>
@@ -13866,7 +13846,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B75">
         <v>9</v>
@@ -13877,7 +13857,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B76">
         <v>9</v>
@@ -13888,7 +13868,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B77">
         <v>9</v>
@@ -13899,7 +13879,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B78">
         <v>9</v>
@@ -13910,7 +13890,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B79">
         <v>9</v>
@@ -13921,7 +13901,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B80">
         <v>10</v>
@@ -13932,7 +13912,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B81">
         <v>10</v>
@@ -13943,7 +13923,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B82">
         <v>10</v>
@@ -13954,7 +13934,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B83">
         <v>10</v>
@@ -13965,7 +13945,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B84">
         <v>10</v>
@@ -13976,7 +13956,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B85">
         <v>10</v>
@@ -13987,7 +13967,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B86">
         <v>10</v>
@@ -13998,7 +13978,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B87">
         <v>10</v>
@@ -14009,7 +13989,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B88">
         <v>10</v>
@@ -14020,7 +14000,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B89">
         <v>10</v>
@@ -14031,7 +14011,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B90">
         <v>10</v>
@@ -14042,7 +14022,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B91">
         <v>10</v>
@@ -14053,7 +14033,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B92">
         <v>10</v>
@@ -14064,7 +14044,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B93">
         <v>10</v>
@@ -14075,7 +14055,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B94">
         <v>10</v>
@@ -14086,7 +14066,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B95">
         <v>10</v>
@@ -14097,7 +14077,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B96">
         <v>10</v>
@@ -14108,7 +14088,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B97">
         <v>10</v>
@@ -14119,7 +14099,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B98">
         <v>10</v>
@@ -14130,7 +14110,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B99">
         <v>10</v>
@@ -14141,7 +14121,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B100">
         <v>11</v>
@@ -14152,7 +14132,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B101">
         <v>11</v>
@@ -14163,7 +14143,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B102">
         <v>11</v>
@@ -14174,7 +14154,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B103">
         <v>11</v>
@@ -14185,7 +14165,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B104">
         <v>11</v>
@@ -14196,7 +14176,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B105">
         <v>11</v>
@@ -14207,7 +14187,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B106">
         <v>11</v>
@@ -14218,7 +14198,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B107">
         <v>11</v>
@@ -14229,7 +14209,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B108">
         <v>12</v>
@@ -14240,7 +14220,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B109">
         <v>12</v>
@@ -14251,7 +14231,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B110">
         <v>12</v>
@@ -14262,7 +14242,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B111">
         <v>12</v>
@@ -14273,7 +14253,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B112">
         <v>12</v>
@@ -14284,7 +14264,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B113">
         <v>12</v>
@@ -14295,7 +14275,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B114">
         <v>12</v>
@@ -14306,7 +14286,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B115">
         <v>13</v>
@@ -14317,7 +14297,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B116">
         <v>13</v>
@@ -14328,7 +14308,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B117">
         <v>13</v>
@@ -14339,7 +14319,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B118">
         <v>13</v>
@@ -14350,7 +14330,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B119">
         <v>13</v>
@@ -14361,7 +14341,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B120">
         <v>13</v>
@@ -14372,7 +14352,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B121">
         <v>13</v>
@@ -14383,7 +14363,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B122">
         <v>13</v>
@@ -14394,7 +14374,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B123">
         <v>13</v>
@@ -14405,7 +14385,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B124">
         <v>13</v>
@@ -14416,7 +14396,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B125">
         <v>13</v>
@@ -14427,7 +14407,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B126">
         <v>13</v>
@@ -14438,7 +14418,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B127">
         <v>13</v>
@@ -14449,7 +14429,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B128">
         <v>13</v>
@@ -14460,7 +14440,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B129">
         <v>13</v>
@@ -14471,7 +14451,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B130">
         <v>14</v>
@@ -14482,7 +14462,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B131">
         <v>14</v>
@@ -14493,7 +14473,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B132">
         <v>14</v>
@@ -14504,7 +14484,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B133">
         <v>14</v>
@@ -14515,7 +14495,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B134">
         <v>14</v>
@@ -14526,7 +14506,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B135">
         <v>14</v>
@@ -14537,7 +14517,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B136">
         <v>14</v>
@@ -14548,7 +14528,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B137">
         <v>14</v>
@@ -14559,7 +14539,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B138">
         <v>14</v>
@@ -14570,7 +14550,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B139">
         <v>14</v>
@@ -14581,7 +14561,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B140">
         <v>14</v>
@@ -14592,7 +14572,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B141">
         <v>14</v>
@@ -14603,7 +14583,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B142">
         <v>14</v>
@@ -14614,7 +14594,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B143">
         <v>15</v>
@@ -14625,7 +14605,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B144">
         <v>15</v>
@@ -14636,7 +14616,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B145">
         <v>15</v>
@@ -14647,7 +14627,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B146">
         <v>15</v>
@@ -14658,7 +14638,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B147">
         <v>15</v>
@@ -14669,7 +14649,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B148">
         <v>15</v>
@@ -14680,7 +14660,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B149">
         <v>15</v>
@@ -14691,7 +14671,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B150">
         <v>15</v>
@@ -14702,7 +14682,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B151">
         <v>15</v>
@@ -14713,7 +14693,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B152">
         <v>15</v>
@@ -14724,7 +14704,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B153">
         <v>15</v>
@@ -14735,7 +14715,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B154">
         <v>15</v>
@@ -14746,7 +14726,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B155">
         <v>15</v>
@@ -14757,7 +14737,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B156">
         <v>15</v>
@@ -14768,7 +14748,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B157">
         <v>15</v>
@@ -14779,7 +14759,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B158">
         <v>16</v>
@@ -14790,7 +14770,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B159">
         <v>16</v>
@@ -14801,7 +14781,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B160">
         <v>16</v>
@@ -14812,7 +14792,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B161">
         <v>16</v>
@@ -14823,7 +14803,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B162">
         <v>16</v>
@@ -14834,7 +14814,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B163">
         <v>16</v>
@@ -14845,7 +14825,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B164">
         <v>16</v>
@@ -14856,7 +14836,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B165">
         <v>16</v>
@@ -14867,7 +14847,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B166">
         <v>16</v>
@@ -14878,7 +14858,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B167">
         <v>16</v>
@@ -14889,7 +14869,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B168">
         <v>16</v>
@@ -14900,7 +14880,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B169">
         <v>16</v>
@@ -14911,7 +14891,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B170">
         <v>16</v>
@@ -14922,7 +14902,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B171">
         <v>16</v>
@@ -14933,7 +14913,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B172">
         <v>16</v>
@@ -14944,7 +14924,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B173">
         <v>16</v>
@@ -14955,7 +14935,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B174">
         <v>16</v>
@@ -14966,7 +14946,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B175">
         <v>17</v>
@@ -14977,7 +14957,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B176">
         <v>17</v>
@@ -14988,7 +14968,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B177">
         <v>17</v>
@@ -14999,7 +14979,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B178">
         <v>17</v>
@@ -15010,7 +14990,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B179">
         <v>17</v>
@@ -15021,7 +15001,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B180">
         <v>17</v>
@@ -15032,7 +15012,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B181">
         <v>17</v>
@@ -15043,7 +15023,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B182">
         <v>17</v>
@@ -15054,7 +15034,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B183">
         <v>17</v>
@@ -15065,7 +15045,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B184">
         <v>17</v>
@@ -15076,7 +15056,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B185">
         <v>17</v>
@@ -15087,7 +15067,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B186">
         <v>17</v>
@@ -15098,7 +15078,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B187">
         <v>17</v>
@@ -15109,7 +15089,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B188">
         <v>17</v>
@@ -15120,7 +15100,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B189">
         <v>17</v>
@@ -15131,7 +15111,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B190">
         <v>17</v>
@@ -15142,7 +15122,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B191">
         <v>17</v>
@@ -15153,7 +15133,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B192">
         <v>17</v>
@@ -15164,7 +15144,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B193">
         <v>17</v>
@@ -15175,7 +15155,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B194">
         <v>17</v>
@@ -15186,7 +15166,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B195">
         <v>18</v>
@@ -15197,7 +15177,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B196">
         <v>18</v>
@@ -15208,7 +15188,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B197">
         <v>18</v>
@@ -15219,7 +15199,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B198">
         <v>18</v>
@@ -15230,7 +15210,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B199">
         <v>18</v>
@@ -15241,7 +15221,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B200">
         <v>18</v>
@@ -15252,7 +15232,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B201">
         <v>18</v>
@@ -15263,7 +15243,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B202">
         <v>18</v>
@@ -15274,7 +15254,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B203">
         <v>18</v>
@@ -15285,7 +15265,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B204">
         <v>18</v>
@@ -15296,7 +15276,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B205">
         <v>18</v>
@@ -15307,7 +15287,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B206">
         <v>18</v>
@@ -15318,7 +15298,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B207">
         <v>18</v>
@@ -15329,7 +15309,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B208">
         <v>18</v>
@@ -15340,7 +15320,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B209">
         <v>18</v>
@@ -15351,7 +15331,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B210">
         <v>18</v>
@@ -15362,7 +15342,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B211">
         <v>18</v>
@@ -15373,7 +15353,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B212">
         <v>18</v>
@@ -15384,7 +15364,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B213">
         <v>18</v>
@@ -15395,7 +15375,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B214">
         <v>18</v>
@@ -15406,7 +15386,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B215">
         <v>18</v>
@@ -15417,7 +15397,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B216">
         <v>18</v>
@@ -15428,7 +15408,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B217">
         <v>18</v>
@@ -15439,7 +15419,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B218">
         <v>19</v>
@@ -15450,7 +15430,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B219">
         <v>19</v>
@@ -15461,7 +15441,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B220">
         <v>19</v>
@@ -15472,7 +15452,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B221">
         <v>19</v>
@@ -15483,7 +15463,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B222">
         <v>19</v>
@@ -15494,7 +15474,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B223">
         <v>19</v>
@@ -15505,7 +15485,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B224">
         <v>19</v>
@@ -15516,7 +15496,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B225">
         <v>19</v>
@@ -15527,7 +15507,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B226">
         <v>19</v>
@@ -15538,7 +15518,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B227">
         <v>19</v>
@@ -15549,7 +15529,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B228">
         <v>19</v>
@@ -15560,7 +15540,7 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B229">
         <v>19</v>
@@ -15571,7 +15551,7 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B230">
         <v>19</v>
@@ -15582,7 +15562,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B231">
         <v>19</v>
@@ -15593,7 +15573,7 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B232">
         <v>20</v>
@@ -15604,7 +15584,7 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B233">
         <v>20</v>
@@ -15615,7 +15595,7 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B234">
         <v>20</v>
@@ -15626,7 +15606,7 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B235">
         <v>20</v>
@@ -15637,7 +15617,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B236">
         <v>20</v>
@@ -15648,7 +15628,7 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B237">
         <v>20</v>
@@ -15659,7 +15639,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B238">
         <v>20</v>
@@ -15670,7 +15650,7 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B239">
         <v>20</v>
@@ -15681,7 +15661,7 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B240">
         <v>21</v>
@@ -15692,7 +15672,7 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B241">
         <v>21</v>
@@ -15703,7 +15683,7 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B242">
         <v>21</v>
@@ -15714,7 +15694,7 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B243">
         <v>21</v>
@@ -15725,7 +15705,7 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B244">
         <v>21</v>
@@ -15736,7 +15716,7 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B245">
         <v>21</v>
@@ -15747,7 +15727,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B246">
         <v>21</v>
@@ -15758,7 +15738,7 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B247">
         <v>22</v>
@@ -15769,7 +15749,7 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B248">
         <v>22</v>
@@ -15780,7 +15760,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B249">
         <v>22</v>
@@ -15791,7 +15771,7 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B250">
         <v>22</v>
@@ -15802,7 +15782,7 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B251">
         <v>22</v>
@@ -15813,7 +15793,7 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B252">
         <v>22</v>
@@ -15824,7 +15804,7 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B253">
         <v>22</v>
@@ -15835,7 +15815,7 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B254">
         <v>22</v>
@@ -15846,7 +15826,7 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B255">
         <v>22</v>
@@ -15857,7 +15837,7 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B256">
         <v>22</v>
@@ -15868,7 +15848,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B257">
         <v>22</v>
@@ -15879,7 +15859,7 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B258">
         <v>22</v>
@@ -15890,7 +15870,7 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B259">
         <v>22</v>
@@ -15901,7 +15881,7 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B260">
         <v>23</v>
@@ -15912,7 +15892,7 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B261">
         <v>23</v>
@@ -15923,7 +15903,7 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B262">
         <v>23</v>
@@ -15934,7 +15914,7 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B263">
         <v>23</v>
@@ -15945,7 +15925,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B264">
         <v>23</v>
@@ -15956,7 +15936,7 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B265">
         <v>23</v>
@@ -15967,7 +15947,7 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B266">
         <v>23</v>
@@ -15978,7 +15958,7 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B267">
         <v>23</v>
@@ -15989,7 +15969,7 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B268">
         <v>23</v>
@@ -16000,7 +15980,7 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B269">
         <v>23</v>
@@ -16011,7 +15991,7 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B270">
         <v>24</v>
@@ -16022,7 +16002,7 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B271">
         <v>24</v>
@@ -16033,7 +16013,7 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B272">
         <v>24</v>
@@ -16044,7 +16024,7 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B273">
         <v>24</v>
@@ -16055,7 +16035,7 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B274">
         <v>25</v>
@@ -16066,7 +16046,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B275">
         <v>25</v>
@@ -16077,7 +16057,7 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B276">
         <v>25</v>
@@ -16088,7 +16068,7 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B277">
         <v>25</v>
@@ -16099,7 +16079,7 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B278">
         <v>25</v>
@@ -16110,7 +16090,7 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B279">
         <v>25</v>
@@ -16121,7 +16101,7 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B280">
         <v>25</v>
@@ -16132,7 +16112,7 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B281">
         <v>25</v>
@@ -16143,7 +16123,7 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B282">
         <v>25</v>
@@ -16154,7 +16134,7 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B283">
         <v>26</v>
@@ -16165,7 +16145,7 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B284">
         <v>26</v>
@@ -16176,7 +16156,7 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B285">
         <v>26</v>
@@ -16187,7 +16167,7 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B286">
         <v>26</v>
@@ -16198,7 +16178,7 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B287">
         <v>27</v>
@@ -16209,7 +16189,7 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B288">
         <v>27</v>
@@ -16220,7 +16200,7 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B289">
         <v>27</v>
@@ -16231,7 +16211,7 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B290">
         <v>27</v>
@@ -16242,7 +16222,7 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B291">
         <v>27</v>
@@ -16253,7 +16233,7 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B292">
         <v>27</v>
@@ -16264,7 +16244,7 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B293">
         <v>27</v>
@@ -16275,7 +16255,7 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B294">
         <v>27</v>
@@ -16286,7 +16266,7 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B295">
         <v>27</v>
@@ -16297,7 +16277,7 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B296">
         <v>27</v>
@@ -16308,7 +16288,7 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B297">
         <v>27</v>
@@ -16319,7 +16299,7 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B298">
         <v>27</v>
@@ -16330,7 +16310,7 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B299">
         <v>28</v>
@@ -16341,7 +16321,7 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B300">
         <v>28</v>
@@ -16352,7 +16332,7 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B301">
         <v>28</v>
@@ -16363,7 +16343,7 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B302">
         <v>28</v>
@@ -16374,7 +16354,7 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B303">
         <v>28</v>
@@ -16385,7 +16365,7 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B304">
         <v>28</v>
@@ -16396,7 +16376,7 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B305">
         <v>28</v>
@@ -16407,7 +16387,7 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B306">
         <v>28</v>
@@ -16418,7 +16398,7 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B307">
         <v>28</v>
@@ -16429,7 +16409,7 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B308">
         <v>28</v>
@@ -16440,7 +16420,7 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B309">
         <v>28</v>
@@ -16451,7 +16431,7 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B310">
         <v>28</v>
@@ -16462,7 +16442,7 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B311">
         <v>28</v>
@@ -16473,7 +16453,7 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B312">
         <v>28</v>
@@ -16484,7 +16464,7 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B313">
         <v>29</v>
@@ -16495,7 +16475,7 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B314">
         <v>29</v>
@@ -16506,7 +16486,7 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B315">
         <v>29</v>
@@ -16517,7 +16497,7 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B316">
         <v>29</v>
@@ -16528,7 +16508,7 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B317">
         <v>29</v>
@@ -16539,7 +16519,7 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B318">
         <v>29</v>
@@ -16550,7 +16530,7 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B319">
         <v>29</v>
@@ -16561,7 +16541,7 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B320">
         <v>29</v>
@@ -16572,7 +16552,7 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B321">
         <v>29</v>
@@ -16583,7 +16563,7 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B322">
         <v>30</v>
@@ -16594,7 +16574,7 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B323">
         <v>30</v>
@@ -16605,7 +16585,7 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B324">
         <v>30</v>
@@ -16616,7 +16596,7 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B325">
         <v>30</v>
@@ -16627,7 +16607,7 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B326">
         <v>30</v>
@@ -16638,7 +16618,7 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B327">
         <v>30</v>
@@ -16649,7 +16629,7 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B328">
         <v>30</v>
@@ -16660,7 +16640,7 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B329">
         <v>30</v>
@@ -16671,7 +16651,7 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B330">
         <v>30</v>
@@ -16682,7 +16662,7 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B331">
         <v>31</v>
@@ -16693,7 +16673,7 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B332">
         <v>31</v>
@@ -16704,7 +16684,7 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B333">
         <v>31</v>
@@ -16715,7 +16695,7 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B334">
         <v>31</v>
@@ -16726,7 +16706,7 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B335">
         <v>31</v>
@@ -16737,7 +16717,7 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B336">
         <v>31</v>
@@ -16748,7 +16728,7 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B337">
         <v>31</v>
@@ -16759,7 +16739,7 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B338">
         <v>32</v>
@@ -16770,7 +16750,7 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B339">
         <v>32</v>
@@ -16781,7 +16761,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B340">
         <v>32</v>
@@ -16792,7 +16772,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B341">
         <v>32</v>
@@ -16803,7 +16783,7 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B342">
         <v>32</v>
@@ -16814,7 +16794,7 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B343">
         <v>32</v>
@@ -16825,7 +16805,7 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B344">
         <v>32</v>
@@ -16836,7 +16816,7 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B345">
         <v>33</v>
@@ -16847,7 +16827,7 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B346">
         <v>33</v>
@@ -16858,7 +16838,7 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B347">
         <v>33</v>
@@ -16869,7 +16849,7 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B348">
         <v>33</v>
@@ -16880,7 +16860,7 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B349">
         <v>33</v>
@@ -16891,7 +16871,7 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B350">
         <v>34</v>
@@ -16902,7 +16882,7 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B351">
         <v>34</v>
@@ -16913,7 +16893,7 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B352">
         <v>34</v>
@@ -16924,7 +16904,7 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B353">
         <v>34</v>
@@ -16935,7 +16915,7 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B354">
         <v>34</v>
@@ -16946,7 +16926,7 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B355">
         <v>34</v>
@@ -16957,7 +16937,7 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B356">
         <v>34</v>
@@ -16968,7 +16948,7 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B357">
         <v>35</v>
@@ -16979,7 +16959,7 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="B358">
         <v>35</v>
@@ -16990,7 +16970,7 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B359">
         <v>35</v>
@@ -17001,7 +16981,7 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B360">
         <v>35</v>
@@ -17012,7 +16992,7 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B361">
         <v>36</v>
@@ -17023,7 +17003,7 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B362">
         <v>36</v>
@@ -17034,7 +17014,7 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B363">
         <v>36</v>
@@ -17045,7 +17025,7 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B364">
         <v>36</v>
@@ -17056,7 +17036,7 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B365">
         <v>36</v>
@@ -17067,7 +17047,7 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B366">
         <v>36</v>
@@ -17078,7 +17058,7 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B367">
         <v>37</v>
@@ -17089,7 +17069,7 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B368">
         <v>37</v>
@@ -17100,7 +17080,7 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B369">
         <v>37</v>
@@ -17111,7 +17091,7 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B370">
         <v>38</v>
@@ -17122,7 +17102,7 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B371">
         <v>38</v>
@@ -17133,7 +17113,7 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B372">
         <v>38</v>
@@ -17144,7 +17124,7 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B373">
         <v>39</v>
@@ -17155,7 +17135,7 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B374">
         <v>39</v>
@@ -17166,7 +17146,7 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B375">
         <v>39</v>
@@ -17177,7 +17157,7 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B376">
         <v>40</v>
@@ -17188,7 +17168,7 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B377">
         <v>40</v>
@@ -17199,7 +17179,7 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B378">
         <v>40</v>
@@ -17210,7 +17190,7 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B379">
         <v>40</v>
@@ -17221,7 +17201,7 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B380">
         <v>41</v>
@@ -17232,7 +17212,7 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B381">
         <v>42</v>
@@ -17243,7 +17223,7 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B382">
         <v>43</v>
@@ -17254,7 +17234,7 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B383">
         <v>43</v>
@@ -17265,7 +17245,7 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B384">
         <v>44</v>
@@ -17276,7 +17256,7 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B385">
         <v>45</v>
@@ -17287,7 +17267,7 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B386">
         <v>46</v>
@@ -17298,7 +17278,7 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B387">
         <v>46</v>
@@ -17309,7 +17289,7 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B388">
         <v>46</v>
@@ -17320,7 +17300,7 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B389">
         <v>47</v>
@@ -17331,7 +17311,7 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B390">
         <v>48</v>
@@ -17342,7 +17322,7 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B391">
         <v>48</v>
@@ -17353,7 +17333,7 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B392">
         <v>48</v>
@@ -17364,7 +17344,7 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B393">
         <v>49</v>
@@ -17375,7 +17355,7 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B394">
         <v>49</v>
@@ -17386,7 +17366,7 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B395">
         <v>50</v>
@@ -17397,7 +17377,7 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B396">
         <v>50</v>
@@ -17408,7 +17388,7 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B397">
         <v>50</v>
@@ -17419,7 +17399,7 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B398">
         <v>52</v>
@@ -17430,7 +17410,7 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B399">
         <v>55</v>
@@ -17441,7 +17421,7 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B400">
         <v>55</v>
@@ -17452,7 +17432,7 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B401">
         <v>60</v>
@@ -17463,7 +17443,7 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B402">
         <v>60</v>
@@ -17474,7 +17454,7 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B403">
         <v>61</v>
@@ -17485,7 +17465,7 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B404">
         <v>63</v>
@@ -17496,7 +17476,7 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B405">
         <v>66</v>
@@ -17507,7 +17487,7 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B406">
         <v>77</v>
@@ -17518,7 +17498,7 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B407">
         <v>78</v>
@@ -17529,7 +17509,7 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B408">
         <v>95</v>
@@ -17636,7 +17616,7 @@
         <v>2017</v>
       </c>
       <c r="B11">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -17662,31 +17642,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1870</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1871</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1872</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1873</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1874</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1875</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1876</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1877</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -17929,10 +17909,10 @@
         <v>254</v>
       </c>
       <c r="C10">
-        <v>20.81496062992126</v>
+        <v>20.7992125984252</v>
       </c>
       <c r="D10">
-        <v>15.09421048994115</v>
+        <v>15.06779932347942</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -17955,13 +17935,13 @@
         <v>2017</v>
       </c>
       <c r="B11">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C11">
-        <v>20.77704918032787</v>
+        <v>20.79474548440066</v>
       </c>
       <c r="D11">
-        <v>14.40555440955016</v>
+        <v>14.41075890939317</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -27632,7 +27612,7 @@
         <v>858</v>
       </c>
       <c r="B235">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C235">
         <v>2016</v>
@@ -27654,7 +27634,7 @@
         <v>860</v>
       </c>
       <c r="B237">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C237">
         <v>2016</v>
